--- a/src/test/resources/rules-form.xlsx
+++ b/src/test/resources/rules-form.xlsx
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T8" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC5" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1816,7 +1816,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
     </row>
-    <row r="10" spans="1:42" ht="144">
+    <row r="10" spans="1:42" ht="129.6">
       <c r="A10" s="4"/>
       <c r="B10" s="52"/>
       <c r="C10" s="53">

--- a/src/test/resources/rules-form.xlsx
+++ b/src/test/resources/rules-form.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="203">
   <si>
     <t>Locale</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Pregunta 2</t>
   </si>
   <si>
-    <t>getQuestions() $1 null, getQuestions().size() $2 0</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Extraer todas las preguntas del formulario para inyectarlas en el motor y aplicarles las reglas de manera individual</t>
   </si>
   <si>
-    <t>!=,&gt;</t>
-  </si>
-  <si>
     <t>$form.getQuestions()</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
   </si>
   <si>
     <t>RuleTable for errors in form description</t>
-  </si>
-  <si>
-    <t>getOptions() $1 null, getOptions().size() $2 0</t>
   </si>
   <si>
     <t>for(QuestionOption option : $1) {
@@ -894,6 +885,12 @@
 com.araguacaima.braas.core.RuleMessageSuccess,
 java.util.Set,
 java.util.List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getOptions().size() &gt; $param</t>
+  </si>
+  <si>
+    <t>getQuestions().size() &gt; $param</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1692,9 +1689,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1849,32 +1843,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1883,7 +1861,26 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,9 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2178,28 +2172,28 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="157" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="157" t="s">
+      <c r="G2" s="155" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="24"/>
-      <c r="I2" s="157" t="s">
+      <c r="I2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="157" t="s">
+      <c r="J2" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="26" t="s">
@@ -2248,17 +2242,17 @@
       <c r="C5" s="156"/>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="157" t="s">
+      <c r="G5" s="155" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="157" t="s">
+      <c r="J5" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="26" t="s">
@@ -2324,17 +2318,17 @@
       <c r="C9" s="156"/>
       <c r="D9" s="21"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="157" t="s">
+      <c r="F9" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="155" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="24"/>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="26" t="s">
@@ -2402,17 +2396,17 @@
       <c r="C13" s="156"/>
       <c r="D13" s="21"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="157" t="s">
+      <c r="F13" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="157" t="s">
+      <c r="G13" s="155" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="24"/>
-      <c r="I13" s="157" t="s">
+      <c r="I13" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="157" t="s">
+      <c r="J13" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="26" t="s">
@@ -2480,17 +2474,17 @@
       <c r="C17" s="156"/>
       <c r="D17" s="21"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="157" t="s">
+      <c r="F17" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="157" t="s">
+      <c r="G17" s="155" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="24"/>
-      <c r="I17" s="157" t="s">
+      <c r="I17" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="157" t="s">
+      <c r="J17" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="26" t="s">
@@ -2522,17 +2516,17 @@
       <c r="C19" s="156"/>
       <c r="D19" s="21"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="157" t="s">
+      <c r="F19" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="157" t="s">
+      <c r="G19" s="155" t="s">
         <v>62</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="I19" s="157" t="s">
+      <c r="I19" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="157" t="s">
+      <c r="J19" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="26" t="s">
@@ -2564,7 +2558,7 @@
       <c r="C21" s="156"/>
       <c r="D21" s="21"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="157" t="s">
+      <c r="F21" s="155" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -2612,17 +2606,17 @@
       <c r="C23" s="156"/>
       <c r="D23" s="21"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="157" t="s">
+      <c r="F23" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="157" t="s">
+      <c r="G23" s="155" t="s">
         <v>67</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="157" t="s">
+      <c r="I23" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="157" t="s">
+      <c r="J23" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="26" t="s">
@@ -2649,28 +2643,28 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13" ht="13.2">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="157" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="157" t="s">
+      <c r="F25" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="157" t="s">
+      <c r="G25" s="155" t="s">
         <v>74</v>
       </c>
       <c r="H25" s="24"/>
-      <c r="I25" s="157" t="s">
+      <c r="I25" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="157" t="s">
+      <c r="J25" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="26" t="s">
@@ -2719,17 +2713,17 @@
       <c r="C28" s="156"/>
       <c r="D28" s="21"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="157" t="s">
+      <c r="F28" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="155" t="s">
         <v>79</v>
       </c>
       <c r="H28" s="24"/>
-      <c r="I28" s="157" t="s">
+      <c r="I28" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="157" t="s">
+      <c r="J28" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -2795,17 +2789,17 @@
       <c r="C32" s="156"/>
       <c r="D32" s="21"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="157" t="s">
+      <c r="F32" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="157" t="s">
+      <c r="G32" s="155" t="s">
         <v>91</v>
       </c>
       <c r="H32" s="24"/>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="157" t="s">
+      <c r="J32" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="26" t="s">
@@ -2873,17 +2867,17 @@
       <c r="C36" s="156"/>
       <c r="D36" s="21"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="157" t="s">
+      <c r="F36" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="157" t="s">
+      <c r="G36" s="155" t="s">
         <v>96</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="157" t="s">
+      <c r="I36" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="157" t="s">
+      <c r="J36" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K36" s="26" t="s">
@@ -2951,17 +2945,17 @@
       <c r="C40" s="156"/>
       <c r="D40" s="21"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="157" t="s">
+      <c r="F40" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="157" t="s">
+      <c r="G40" s="155" t="s">
         <v>99</v>
       </c>
       <c r="H40" s="24"/>
-      <c r="I40" s="157" t="s">
+      <c r="I40" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="157" t="s">
+      <c r="J40" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="26" t="s">
@@ -2993,17 +2987,17 @@
       <c r="C42" s="156"/>
       <c r="D42" s="21"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="157" t="s">
+      <c r="F42" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="G42" s="157" t="s">
+      <c r="G42" s="155" t="s">
         <v>101</v>
       </c>
       <c r="H42" s="24"/>
-      <c r="I42" s="157" t="s">
+      <c r="I42" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="157" t="s">
+      <c r="J42" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K42" s="26" t="s">
@@ -3035,7 +3029,7 @@
       <c r="C44" s="156"/>
       <c r="D44" s="21"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="157" t="s">
+      <c r="F44" s="155" t="s">
         <v>102</v>
       </c>
       <c r="G44" s="22" t="s">
@@ -3083,17 +3077,17 @@
       <c r="C46" s="156"/>
       <c r="D46" s="21"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="157" t="s">
+      <c r="F46" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="157" t="s">
+      <c r="G46" s="155" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="24"/>
-      <c r="I46" s="157" t="s">
+      <c r="I46" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="157" t="s">
+      <c r="J46" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K46" s="26" t="s">
@@ -3120,28 +3114,28 @@
       <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:13" ht="13.2">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="157" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="157" t="s">
+      <c r="F48" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="157" t="s">
+      <c r="G48" s="155" t="s">
         <v>109</v>
       </c>
       <c r="H48" s="24"/>
-      <c r="I48" s="157" t="s">
+      <c r="I48" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="157" t="s">
+      <c r="J48" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K48" s="26" t="s">
@@ -3173,21 +3167,21 @@
       <c r="C50" s="156"/>
       <c r="D50" s="21"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="157" t="s">
+      <c r="F50" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="157" t="s">
+      <c r="G50" s="155" t="s">
         <v>111</v>
       </c>
       <c r="H50" s="24"/>
-      <c r="I50" s="157" t="s">
+      <c r="I50" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="157" t="s">
+      <c r="J50" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
@@ -3204,7 +3198,7 @@
       <c r="I51" s="156"/>
       <c r="J51" s="156"/>
       <c r="K51" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -3221,34 +3215,34 @@
       <c r="I52" s="156"/>
       <c r="J52" s="156"/>
       <c r="K52" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
     </row>
     <row r="53" spans="1:13" ht="13.2">
-      <c r="A53" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="155" t="s">
+      <c r="A53" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="155" t="s">
-        <v>119</v>
+      <c r="C53" s="157" t="s">
+        <v>118</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="157" t="s">
+      <c r="F53" s="155" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="157" t="s">
-        <v>121</v>
-      </c>
       <c r="H53" s="24"/>
-      <c r="I53" s="157" t="s">
+      <c r="I53" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="157" t="s">
+      <c r="J53" s="155" t="s">
         <v>9</v>
       </c>
       <c r="K53" s="26" t="s">
@@ -3280,21 +3274,21 @@
       <c r="C55" s="156"/>
       <c r="D55" s="21"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="157" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="157" t="s">
-        <v>122</v>
+      <c r="F55" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="155" t="s">
+        <v>121</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="I55" s="157" t="s">
+      <c r="I55" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="157" t="s">
+      <c r="J55" s="155" t="s">
         <v>13</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
@@ -3311,7 +3305,7 @@
       <c r="I56" s="156"/>
       <c r="J56" s="156"/>
       <c r="K56" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
@@ -3328,23 +3322,73 @@
       <c r="I57" s="156"/>
       <c r="J57" s="156"/>
       <c r="K57" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C25:C47"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B25:B47"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I57"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="J36:J39"/>
     <mergeCell ref="J40:J41"/>
@@ -3361,66 +3405,16 @@
     <mergeCell ref="I46:I47"/>
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="C2:C24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B25:B47"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="C25:C47"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J13:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -31518,7 +31512,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -31535,7 +31529,7 @@
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.44140625" customWidth="1"/>
     <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="53.33203125" customWidth="1"/>
+    <col min="14" max="14" width="45.21875" customWidth="1"/>
     <col min="15" max="15" width="26.5546875" customWidth="1"/>
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
     <col min="17" max="18" width="21.109375" customWidth="1"/>
@@ -31562,7 +31556,7 @@
         <v>6</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -31591,8 +31585,8 @@
       <c r="M2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="177" t="s">
-        <v>203</v>
+      <c r="N2" s="154" t="s">
+        <v>200</v>
       </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -31723,7 +31717,7 @@
     </row>
     <row r="7" spans="1:24" ht="17.25" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="173" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="156"/>
@@ -31752,18 +31746,18 @@
     <row r="8" spans="1:24" ht="17.25" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="160"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="164"/>
       <c r="M8" s="34" t="s">
         <v>68</v>
       </c>
@@ -31802,20 +31796,20 @@
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="162"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="156"/>
       <c r="E9" s="156"/>
       <c r="F9" s="156"/>
       <c r="G9" s="156"/>
-      <c r="H9" s="163"/>
+      <c r="H9" s="169"/>
       <c r="I9" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="167"/>
+      <c r="J9" s="172"/>
       <c r="K9" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L9" s="168"/>
+      <c r="L9" s="167"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42" t="s">
         <v>97</v>
@@ -31834,25 +31828,25 @@
     <row r="10" spans="1:24" ht="17.25" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="165"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
       <c r="I10" s="49"/>
       <c r="J10" s="50"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
       <c r="M10" s="41"/>
       <c r="N10" s="53" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="46"/>
       <c r="R10" s="46"/>
@@ -31866,37 +31860,37 @@
     <row r="11" spans="1:24" ht="17.25" customHeight="1">
       <c r="A11" s="30"/>
       <c r="B11" s="33"/>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="57" t="s">
+      <c r="J11" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="K11" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="L11" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="M11" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="N11" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="N11" s="60" t="s">
+      <c r="O11" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="61" t="s">
+      <c r="P11" s="62" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="62" t="s">
-        <v>131</v>
       </c>
       <c r="Q11" s="64"/>
       <c r="R11" s="64"/>
@@ -31914,39 +31908,39 @@
         <v>1</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="67"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="K12" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="L12" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="M12" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="71">
+        <v>0</v>
+      </c>
+      <c r="O12" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="M12" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" s="71" t="s">
+      <c r="P12" s="72" t="s">
         <v>139</v>
-      </c>
-      <c r="O12" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="P12" s="72" t="s">
-        <v>141</v>
       </c>
       <c r="Q12" s="75" t="s">
         <v>48</v>
@@ -31956,7 +31950,7 @@
         <v>questions</v>
       </c>
       <c r="S12" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T12" s="75" t="s">
         <v>48</v>
@@ -31965,7 +31959,7 @@
         <v>36</v>
       </c>
       <c r="V12" s="75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W12" s="76" t="s">
         <v>48</v>
@@ -31974,8 +31968,8 @@
     </row>
     <row r="13" spans="1:24" ht="17.25" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="161" t="s">
-        <v>145</v>
+      <c r="B13" s="173" t="s">
+        <v>143</v>
       </c>
       <c r="C13" s="156"/>
       <c r="D13" s="156"/>
@@ -32003,18 +31997,18 @@
     <row r="14" spans="1:24" ht="17.25" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="33"/>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="160"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="164"/>
       <c r="M14" s="34" t="s">
         <v>68</v>
       </c>
@@ -32053,23 +32047,23 @@
     <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="162"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="156"/>
       <c r="E15" s="156"/>
       <c r="F15" s="156"/>
       <c r="G15" s="156"/>
-      <c r="H15" s="163"/>
+      <c r="H15" s="169"/>
       <c r="I15" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="167"/>
+      <c r="J15" s="172"/>
       <c r="K15" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="168"/>
+      <c r="L15" s="167"/>
       <c r="M15" s="41"/>
       <c r="N15" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
@@ -32085,25 +32079,25 @@
     <row r="16" spans="1:24" ht="17.25" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="165"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
       <c r="I16" s="49"/>
       <c r="J16" s="50"/>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
       <c r="M16" s="41"/>
       <c r="N16" s="53" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="O16" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P16" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
@@ -32117,37 +32111,37 @@
     <row r="17" spans="1:24" ht="17.25" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="57" t="s">
+      <c r="J17" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="K17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="L17" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="M17" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="M17" s="60" t="s">
-        <v>128</v>
-      </c>
       <c r="N17" s="60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O17" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>130</v>
-      </c>
-      <c r="P17" s="62" t="s">
-        <v>131</v>
       </c>
       <c r="Q17" s="64"/>
       <c r="R17" s="64"/>
@@ -32165,39 +32159,39 @@
         <v>2</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G18" s="67"/>
       <c r="H18" s="68"/>
       <c r="I18" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="M18" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="71">
+        <v>0</v>
+      </c>
+      <c r="O18" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="P18" s="70" t="s">
         <v>154</v>
-      </c>
-      <c r="L18" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="M18" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="O18" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" s="70" t="s">
-        <v>157</v>
       </c>
       <c r="Q18" s="75" t="s">
         <v>48</v>
@@ -32207,7 +32201,7 @@
         <v>options</v>
       </c>
       <c r="S18" s="75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T18" s="75" t="s">
         <v>48</v>
@@ -32216,7 +32210,7 @@
         <v>36</v>
       </c>
       <c r="V18" s="75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W18" s="76" t="s">
         <v>48</v>
@@ -32225,23 +32219,23 @@
     </row>
     <row r="19" spans="1:24" ht="17.25" customHeight="1">
       <c r="A19" s="80"/>
-      <c r="B19" s="172" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
+      <c r="B19" s="161" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
       <c r="Q19" s="91"/>
       <c r="R19" s="91"/>
       <c r="S19" s="91"/>
@@ -32254,18 +32248,18 @@
     <row r="20" spans="1:24" ht="36">
       <c r="A20" s="80"/>
       <c r="B20" s="85"/>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="160"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="164"/>
       <c r="M20" s="86" t="s">
         <v>68</v>
       </c>
@@ -32304,23 +32298,23 @@
     <row r="21" spans="1:24" ht="18">
       <c r="A21" s="80"/>
       <c r="B21" s="85"/>
-      <c r="C21" s="162"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="156"/>
       <c r="E21" s="156"/>
       <c r="F21" s="156"/>
       <c r="G21" s="156"/>
-      <c r="H21" s="163"/>
+      <c r="H21" s="169"/>
       <c r="I21" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="167"/>
+      <c r="J21" s="172"/>
       <c r="K21" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="168"/>
+      <c r="L21" s="167"/>
       <c r="M21" s="94"/>
       <c r="N21" s="95" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O21" s="96"/>
       <c r="P21" s="45"/>
@@ -32336,25 +32330,25 @@
     <row r="22" spans="1:24" ht="17.25" customHeight="1">
       <c r="A22" s="80"/>
       <c r="B22" s="85"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="165"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="171"/>
       <c r="I22" s="49"/>
       <c r="J22" s="50"/>
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
       <c r="M22" s="94"/>
-      <c r="N22" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="O22" s="103" t="s">
-        <v>163</v>
+      <c r="N22" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="102" t="s">
+        <v>160</v>
       </c>
       <c r="P22" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="89"/>
       <c r="R22" s="89"/>
@@ -32368,43 +32362,43 @@
     <row r="23" spans="1:24" ht="18">
       <c r="A23" s="80"/>
       <c r="B23" s="85"/>
-      <c r="C23" s="169" t="s">
+      <c r="C23" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="106" t="s">
+      <c r="J23" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="107" t="s">
+      <c r="K23" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="108" t="s">
+      <c r="L23" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="L23" s="106" t="s">
+      <c r="M23" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="M23" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="112" t="s">
-        <v>130</v>
+      <c r="N23" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="O23" s="111" t="s">
+        <v>129</v>
       </c>
       <c r="P23" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
+        <v>131</v>
+      </c>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
       <c r="V23" s="90"/>
       <c r="W23" s="90"/>
       <c r="X23" s="98"/>
@@ -32412,36 +32406,36 @@
     <row r="24" spans="1:24" ht="69" customHeight="1">
       <c r="A24" s="80"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="117">
+      <c r="C24" s="116">
         <v>5</v>
       </c>
-      <c r="D24" s="119" t="s">
+      <c r="D24" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="116">
+        <v>1</v>
+      </c>
+      <c r="F24" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="117">
-        <v>1</v>
-      </c>
-      <c r="F24" s="121" t="s">
+      <c r="H24" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="125"/>
+      <c r="M24" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="129" t="str">
+      <c r="N24" s="128" t="str">
         <f>CONCATENATE("""",Questions!$F$2,"""", ",","""",Questions!$K$3,"""")</f>
         <v>"4b44037b-a78d-4a64-bd07-617f8111a9b3","No"</v>
       </c>
@@ -32453,65 +32447,65 @@
         <f t="shared" ref="P24:P25" si="0">CONCATENATE("""","DEBUG","""",",","""",H24,"""")</f>
         <v>"DEBUG","options"</v>
       </c>
-      <c r="Q24" s="132" t="s">
+      <c r="Q24" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="132" t="str">
+      <c r="R24" s="131" t="str">
         <f t="shared" ref="R24:R25" si="1">SUBSTITUTE(TRIM(F24&amp;" "&amp;G24&amp;" "&amp;H24)," ","-")</f>
         <v>form-questions-options</v>
       </c>
-      <c r="S24" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="T24" s="134" t="str">
+      <c r="S24" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24" s="133" t="str">
         <f t="shared" ref="T24:T25" si="2">IF(N24="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="U24" s="134" t="str">
+      <c r="U24" s="133" t="str">
         <f t="shared" ref="U24:U25" si="3">IF(M24="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
-      <c r="V24" s="132" t="s">
-        <v>180</v>
-      </c>
-      <c r="W24" s="132" t="s">
+      <c r="V24" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="W24" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="X24" s="136"/>
+      <c r="X24" s="135"/>
     </row>
     <row r="25" spans="1:24" ht="67.5" customHeight="1">
       <c r="A25" s="80"/>
       <c r="B25" s="85"/>
-      <c r="C25" s="117">
+      <c r="C25" s="116">
         <v>5</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="116">
+        <v>2</v>
+      </c>
+      <c r="F25" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="117">
-        <v>2</v>
-      </c>
-      <c r="F25" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="129" t="str">
+      <c r="H25" s="124" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="125"/>
+      <c r="M25" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="N25" s="128" t="str">
         <f>CONCATENATE("""",Questions!$F$25,"""", ",","""",Questions!$K$26,"""")</f>
         <v>"4e5a67c4-b02e-45dd-be94-d675b622f22a","No"</v>
       </c>
@@ -32523,276 +32517,268 @@
         <f t="shared" si="0"/>
         <v>"DEBUG","options"</v>
       </c>
-      <c r="Q25" s="132" t="s">
+      <c r="Q25" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="R25" s="132" t="str">
+      <c r="R25" s="131" t="str">
         <f t="shared" si="1"/>
         <v>form-questions-options</v>
       </c>
-      <c r="S25" s="132" t="s">
-        <v>186</v>
-      </c>
-      <c r="T25" s="134" t="str">
+      <c r="S25" s="131" t="s">
+        <v>183</v>
+      </c>
+      <c r="T25" s="133" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="U25" s="134" t="str">
+      <c r="U25" s="133" t="str">
         <f t="shared" si="3"/>
         <v>true</v>
       </c>
-      <c r="V25" s="132" t="s">
-        <v>180</v>
-      </c>
-      <c r="W25" s="132" t="s">
+      <c r="V25" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="W25" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="X25" s="136"/>
+      <c r="X25" s="135"/>
     </row>
     <row r="26" spans="1:24" ht="14.4">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="144"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
     </row>
     <row r="27" spans="1:24" ht="14.4">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="147"/>
+      <c r="V27" s="147"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="147"/>
     </row>
     <row r="28" spans="1:24" ht="14.4">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="147"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
     </row>
     <row r="29" spans="1:24" ht="14.4">
-      <c r="A29" s="138"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
     </row>
     <row r="30" spans="1:24" ht="14.4">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="140"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="147"/>
+      <c r="V30" s="147"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
     </row>
     <row r="31" spans="1:24" ht="14.4">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
     </row>
     <row r="32" spans="1:24" ht="14.4">
-      <c r="A32" s="138"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="140"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
     </row>
     <row r="33" spans="1:24" ht="14.4">
-      <c r="A33" s="138"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
+      <c r="A33" s="137"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="147"/>
+      <c r="V33" s="147"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="147"/>
     </row>
     <row r="34" spans="1:24" ht="14.4">
-      <c r="A34" s="138"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="144"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="146"/>
+      <c r="U34" s="147"/>
+      <c r="V34" s="147"/>
+      <c r="W34" s="147"/>
+      <c r="X34" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="B7:P7"/>
     <mergeCell ref="C15:H16"/>
@@ -32803,6 +32789,14 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -32904,7 +32898,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -33014,24 +33008,24 @@
     </row>
     <row r="5" spans="1:37" ht="16.5" customHeight="1">
       <c r="A5" s="80"/>
-      <c r="B5" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
+      <c r="B5" s="161" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
       <c r="R5" s="81"/>
       <c r="S5" s="82"/>
       <c r="T5" s="82"/>
@@ -33056,18 +33050,18 @@
     <row r="6" spans="1:37" ht="18">
       <c r="A6" s="80"/>
       <c r="B6" s="85"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="160"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="164"/>
       <c r="M6" s="86" t="s">
         <v>68</v>
       </c>
@@ -33117,23 +33111,23 @@
     <row r="7" spans="1:37" ht="18">
       <c r="A7" s="80"/>
       <c r="B7" s="85"/>
-      <c r="C7" s="162"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="156"/>
       <c r="E7" s="156"/>
       <c r="F7" s="156"/>
       <c r="G7" s="156"/>
-      <c r="H7" s="163"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="167"/>
+      <c r="J7" s="172"/>
       <c r="K7" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="167"/>
       <c r="M7" s="94"/>
       <c r="N7" s="174" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O7" s="175"/>
       <c r="P7" s="96"/>
@@ -33162,28 +33156,28 @@
     <row r="8" spans="1:37" ht="18.75" customHeight="1">
       <c r="A8" s="80"/>
       <c r="B8" s="85"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="165"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="99"/>
       <c r="J8" s="100"/>
       <c r="K8" s="101"/>
-      <c r="L8" s="104"/>
+      <c r="L8" s="103"/>
       <c r="M8" s="94"/>
-      <c r="N8" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="O8" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="P8" s="103" t="s">
-        <v>166</v>
+      <c r="N8" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>163</v>
       </c>
       <c r="Q8" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R8" s="97"/>
       <c r="S8" s="89"/>
@@ -33208,48 +33202,48 @@
     </row>
     <row r="9" spans="1:37" ht="18">
       <c r="A9" s="3"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="169" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="111" t="s">
+      <c r="J9" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="K9" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="L9" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="M9" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="118" t="s">
-        <v>168</v>
-      </c>
-      <c r="P9" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q9" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="R9" s="124"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
+      <c r="N9" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="123"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
       <c r="X9" s="90"/>
       <c r="Y9" s="90"/>
       <c r="Z9" s="90"/>
@@ -33268,62 +33262,62 @@
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
       <c r="A10" s="80"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="119">
+      <c r="C10" s="118">
         <v>1</v>
       </c>
-      <c r="D10" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="119">
+      <c r="D10" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="118">
         <v>1</v>
       </c>
-      <c r="F10" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="123" t="s">
+      <c r="F10" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="123"/>
-      <c r="I10" s="126" t="s">
+      <c r="L10" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="J10" s="128" t="s">
-        <v>175</v>
-      </c>
-      <c r="K10" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="126" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="130" t="str">
+      <c r="M10" s="129" t="str">
         <f t="shared" ref="M10:M11" si="0">I10</f>
         <v>Form\'s description cannot be null</v>
       </c>
-      <c r="N10" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="O10" s="131"/>
+      <c r="N10" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" s="130"/>
       <c r="P10" s="74" t="str">
         <f t="shared" ref="P10:P11" si="1">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F10&amp;" "&amp;G10&amp;" "&amp;H10)," ","."),"""",",","""",$I$7,"""",",","""",CONCATENATE(C10,D10,E10)," [",SUBSTITUTE(TRIM(F10&amp;" "&amp;G10&amp;" "&amp;H10)," ","."),"] - ",I10,"""",",","""",I10,"""",",","""",J10,"""",",","""", $K$7,"""",",","""",CONCATENATE(C10,D10,E10)," [",SUBSTITUTE(TRIM(F10&amp;" "&amp;G10&amp;" "&amp;H10)," ","."),"] - ",K10,"""",",","""",K10,"""",",","""",L10,"""",",","$form.getDescription()",",","$form.getId()")</f>
         <v>"form[$form.getId()]","form.description","en","1.1 [form.description] - Form\'s description cannot be null","Form\'s description cannot be null","A name with some value different than null","es","1.1 [form.description] - La descripción de la forma no pude ser nulo","La descripción de la forma no pude ser nulo","Una descripción con algún valor diferente de nulo",$form.getDescription(),$form.getId()</v>
       </c>
-      <c r="Q10" s="133" t="str">
+      <c r="Q10" s="132" t="str">
         <f t="shared" ref="Q10:Q11" si="2">CONCATENATE("""","ERROR","""",",","""",I10,"""")</f>
         <v>"ERROR","Form\'s description cannot be null"</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="134" t="s">
+      <c r="R10" s="134"/>
+      <c r="S10" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="137" t="str">
+      <c r="T10" s="136" t="str">
         <f t="shared" ref="T10:T11" si="3">SUBSTITUTE(TRIM(F10&amp;" "&amp;G10&amp;" "&amp;H10)," ","-")</f>
         <v>form-description</v>
       </c>
-      <c r="U10" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="134" t="str">
+      <c r="U10" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="V10" s="133" t="str">
         <f t="shared" ref="V10:V11" si="4">IF(M10="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -33348,62 +33342,62 @@
     <row r="11" spans="1:37" ht="18" customHeight="1">
       <c r="A11" s="80"/>
       <c r="B11" s="85"/>
-      <c r="C11" s="119">
+      <c r="C11" s="118">
         <v>1</v>
       </c>
-      <c r="D11" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="119">
+      <c r="D11" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="118">
         <v>2</v>
       </c>
-      <c r="F11" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="126" t="s">
+      <c r="F11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="125" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="J11" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" s="126" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="126" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" s="130" t="str">
+      <c r="M11" s="129" t="str">
         <f t="shared" si="0"/>
         <v>Form\'s description cannot be empty</v>
       </c>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131" t="s">
-        <v>178</v>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130" t="s">
+        <v>175</v>
       </c>
       <c r="P11" s="74" t="str">
         <f t="shared" si="1"/>
         <v>"form[$form.getId()]","form.description","en","1.2 [form.description] - Form\'s description cannot be empty","Form\'s description cannot be empty","A name with some value different than empty","es","1.2 [form.description] - La descripción de la forma no pude ser vacío","La descripción de la forma no pude ser vacío","Una descripción con algún valor diferente de vacío",$form.getDescription(),$form.getId()</v>
       </c>
-      <c r="Q11" s="133" t="str">
+      <c r="Q11" s="132" t="str">
         <f t="shared" si="2"/>
         <v>"ERROR","Form\'s description cannot be empty"</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="134" t="s">
+      <c r="R11" s="134"/>
+      <c r="S11" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="137" t="str">
+      <c r="T11" s="136" t="str">
         <f t="shared" si="3"/>
         <v>form-description</v>
       </c>
-      <c r="U11" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="V11" s="134" t="str">
+      <c r="U11" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="V11" s="133" t="str">
         <f t="shared" si="4"/>
         <v>true</v>
       </c>
@@ -33427,30 +33421,30 @@
     </row>
     <row r="12" spans="1:37" ht="17.25" customHeight="1">
       <c r="A12" s="80"/>
-      <c r="B12" s="172" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
+      <c r="B12" s="161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
       <c r="R12" s="81"/>
       <c r="S12" s="91"/>
       <c r="T12" s="91"/>
       <c r="U12" s="91"/>
       <c r="V12" s="91"/>
-      <c r="W12" s="139"/>
+      <c r="W12" s="138"/>
       <c r="X12" s="92"/>
       <c r="Y12" s="92"/>
       <c r="Z12" s="92"/>
@@ -33469,18 +33463,18 @@
     <row r="13" spans="1:37" ht="18">
       <c r="A13" s="80"/>
       <c r="B13" s="85"/>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="160"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="164"/>
       <c r="M13" s="86" t="s">
         <v>68</v>
       </c>
@@ -33530,23 +33524,23 @@
     <row r="14" spans="1:37" ht="18">
       <c r="A14" s="80"/>
       <c r="B14" s="85"/>
-      <c r="C14" s="162"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="156"/>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
-      <c r="H14" s="163"/>
+      <c r="H14" s="169"/>
       <c r="I14" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="167"/>
+      <c r="J14" s="172"/>
       <c r="K14" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="168"/>
+      <c r="L14" s="167"/>
       <c r="M14" s="94"/>
       <c r="N14" s="174" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O14" s="176"/>
       <c r="P14" s="96"/>
@@ -33575,28 +33569,28 @@
     <row r="15" spans="1:37" ht="18" customHeight="1">
       <c r="A15" s="80"/>
       <c r="B15" s="85"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="165"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="171"/>
       <c r="I15" s="99"/>
       <c r="J15" s="100"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="104"/>
+      <c r="L15" s="103"/>
       <c r="M15" s="94"/>
-      <c r="N15" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="O15" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="P15" s="103" t="s">
-        <v>166</v>
+      <c r="N15" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="148" t="s">
+        <v>186</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>163</v>
       </c>
       <c r="Q15" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R15" s="97"/>
       <c r="S15" s="89"/>
@@ -33622,47 +33616,47 @@
     <row r="16" spans="1:37" ht="18">
       <c r="A16" s="80"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="158" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="106" t="s">
+      <c r="J16" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="K16" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="108" t="s">
+      <c r="L16" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="106" t="s">
+      <c r="M16" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="P16" s="112" t="s">
-        <v>130</v>
+      <c r="N16" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="111" t="s">
+        <v>129</v>
       </c>
       <c r="Q16" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="R16" s="150"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
+        <v>131</v>
+      </c>
+      <c r="R16" s="149"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
       <c r="X16" s="90"/>
       <c r="Y16" s="90"/>
       <c r="Z16" s="90"/>
@@ -33681,60 +33675,60 @@
     <row r="17" spans="1:37" ht="18.75" customHeight="1">
       <c r="A17" s="80"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="119">
+      <c r="C17" s="118">
         <v>2</v>
       </c>
-      <c r="D17" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="119">
+      <c r="D17" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="118">
         <v>1</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126" t="s">
+      <c r="L17" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="126" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="126" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="130" t="str">
+      <c r="M17" s="129" t="str">
         <f t="shared" ref="M17:M18" si="5">I17</f>
         <v>Form\'s questions cannot be null</v>
       </c>
-      <c r="N17" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="O17" s="151"/>
+      <c r="N17" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="150"/>
       <c r="P17" s="74" t="str">
         <f t="shared" ref="P17:P18" si="6">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F17&amp;" "&amp;G17&amp;" "&amp;H17)," ","."),"""",",","""",$I$7,"""",",","""",CONCATENATE(C17,D17,E17)," [",SUBSTITUTE(TRIM(F17&amp;" "&amp;G17&amp;" "&amp;H17)," ","."),"] - ",I17,"""",",","""",I17,"""",",","""",J17,"""",",","""", $K$7,"""",",","""",CONCATENATE(C17,D17,E17)," [",SUBSTITUTE(TRIM(F17&amp;" "&amp;G17&amp;" "&amp;H17)," ","."),"] - ",K17,"""",",","""",K17,"""",",","""",L17,"""",",","$form.getQuestions()",",","$form.getId()")</f>
         <v>"form[$form.getId()]","question","en","2.1 [question] - Form\'s questions cannot be null","Form\'s questions cannot be null","An question list with some value different than null","es","2.1 [question] - Las preguntas de la forma no pueden ser nulas","Las preguntas de la forma no pueden ser nulas","Un listado de preguntas diferente de nulo",$form.getQuestions(),$form.getId()</v>
       </c>
-      <c r="Q17" s="133" t="str">
+      <c r="Q17" s="132" t="str">
         <f t="shared" ref="Q17:Q18" si="7">CONCATENATE("""","ERROR","""",",","""",I17,"""")</f>
         <v>"ERROR","Form\'s questions cannot be null"</v>
       </c>
-      <c r="R17" s="135"/>
-      <c r="S17" s="134" t="s">
+      <c r="R17" s="134"/>
+      <c r="S17" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="137" t="str">
+      <c r="T17" s="136" t="str">
         <f t="shared" ref="T17:T18" si="8">SUBSTITUTE(TRIM(F17&amp;" "&amp;G17&amp;" "&amp;H17)," ","-")</f>
         <v>question</v>
       </c>
-      <c r="U17" s="152" t="s">
-        <v>195</v>
-      </c>
-      <c r="V17" s="134" t="str">
+      <c r="U17" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="V17" s="133" t="str">
         <f t="shared" ref="V17:V18" si="9">IF(N17="COMPLETE","false","true")</f>
         <v>true</v>
       </c>
@@ -33759,60 +33753,60 @@
     <row r="18" spans="1:37" ht="17.25" customHeight="1">
       <c r="A18" s="80"/>
       <c r="B18" s="85"/>
-      <c r="C18" s="119">
+      <c r="C18" s="118">
         <v>2</v>
       </c>
-      <c r="D18" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="119">
+      <c r="D18" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="118">
         <v>2</v>
       </c>
-      <c r="F18" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="126" t="s">
+      <c r="F18" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="J18" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" s="126" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="M18" s="130" t="str">
+      <c r="M18" s="129" t="str">
         <f t="shared" si="5"/>
         <v>Form\'s questions cannot be empty</v>
       </c>
-      <c r="N18" s="154"/>
-      <c r="O18" s="131" t="s">
-        <v>178</v>
+      <c r="N18" s="153"/>
+      <c r="O18" s="130" t="s">
+        <v>175</v>
       </c>
       <c r="P18" s="74" t="str">
         <f t="shared" si="6"/>
         <v>"form[$form.getId()]","question","en","2.2 [question] - Form\'s questions cannot be empty","Form\'s questions cannot be empty","An question list with some value different than empty","es","2.2 [question] - Las preguntas de la forma no pueden ser vacías","Las preguntas de la forma no pueden ser vacías","Un listado de preguntas diferente de vacío",$form.getQuestions(),$form.getId()</v>
       </c>
-      <c r="Q18" s="133" t="str">
+      <c r="Q18" s="132" t="str">
         <f t="shared" si="7"/>
         <v>"ERROR","Form\'s questions cannot be empty"</v>
       </c>
-      <c r="R18" s="135"/>
-      <c r="S18" s="134" t="s">
+      <c r="R18" s="134"/>
+      <c r="S18" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="137" t="str">
+      <c r="T18" s="136" t="str">
         <f t="shared" si="8"/>
         <v>question</v>
       </c>
-      <c r="U18" s="152" t="s">
-        <v>201</v>
-      </c>
-      <c r="V18" s="134" t="str">
+      <c r="U18" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="V18" s="133" t="str">
         <f t="shared" si="9"/>
         <v>true</v>
       </c>
@@ -33870,8 +33864,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="150" customHeight="1">
-      <c r="A1" s="153" t="s">
-        <v>196</v>
+      <c r="A1" s="152" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/rules-form.xlsx
+++ b/src/test/resources/rules-form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="8892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="8892" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="494">
   <si>
     <t>Locale</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Variables</t>
-  </si>
-  <si>
-    <t>java.util.Map _result, java.lang.Double accumulatedWeighting, java.util.List forms</t>
   </si>
   <si>
     <t>238418fd-82e9-4c31-af66-0cd669901141</t>
@@ -504,9 +501,6 @@
   </si>
   <si>
     <t>d10e1059-e4e8-4ee4-b45c-e880c788a8cd</t>
-  </si>
-  <si>
-    <t>_result</t>
   </si>
   <si>
     <t>aaf82452-ed8d-4423-a944-2452ecc5e6fc</t>
@@ -897,24 +891,6 @@
   </si>
   <si>
     <t>RuleTable for processing accumulated weighting</t>
-  </si>
-  <si>
-    <t>double accum = $1;
-RuleLogging.log("DEBUG", "accum : " + accum);
-if (accum &gt; 0) {
-    if(accum &gt;= 4) {
-        String formId = "a4ef5665-f777-4f69-8cfd-e84d246c04f4";
-        for (Object element : forms) {
-            Form form = (Form) element;
-            RuleLogging.log("DEBUG", "Processing form with id " + form.getId());
-            if (form.getId().equals(formId)) {
-                _result.put("nextForm", form);
-                RuleLogging.log("DEBUG", "Adding form to result Map");
-                break;
-            }
-        }
-    }
-}</t>
   </si>
   <si>
     <t>form-selection</t>
@@ -1850,6 +1826,27 @@
   </si>
   <si>
     <t>True/False</t>
+  </si>
+  <si>
+    <t>java.lang.Double accumulatedWeighting, java.util.List forms</t>
+  </si>
+  <si>
+    <t>double accum = $1;
+RuleLogging.log("DEBUG", "accum : " + accum);
+if (accum &gt; 0) {
+    if(accum &gt;= 4) {
+        String formId = "a4ef5665-f777-4f69-8cfd-e84d246c04f4";
+        for (Object element : forms) {
+            Form form = (Form) element;
+            RuleLogging.log("DEBUG", "Processing form with id " + form.getId());
+            if (form.getId().equals(formId)) {
+                insert(form);
+                RuleLogging.log("DEBUG", "Adding form to  output");
+                break;
+            }
+        }
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -2795,14 +2792,32 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2819,46 +2834,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3081,7 +3078,7 @@
   </sheetPr>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5:F8"/>
     </sheetView>
@@ -3159,16 +3156,16 @@
         <v>30</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E2" s="122" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G2" s="124" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H2" s="122" t="s">
         <v>11</v>
@@ -3177,16 +3174,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N2" s="6">
         <v>4</v>
@@ -3200,21 +3197,21 @@
       <c r="E3" s="123"/>
       <c r="F3" s="123"/>
       <c r="G3" s="123" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H3" s="123"/>
       <c r="I3" s="123"/>
       <c r="J3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N3" s="6">
         <v>3</v>
@@ -3228,21 +3225,21 @@
       <c r="E4" s="123"/>
       <c r="F4" s="123"/>
       <c r="G4" s="123" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H4" s="123"/>
       <c r="I4" s="123"/>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N4" s="6">
         <v>5</v>
@@ -3254,13 +3251,13 @@
       <c r="C5" s="123"/>
       <c r="D5" s="128"/>
       <c r="E5" s="122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G5" s="124" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H5" s="122" t="s">
         <v>7</v>
@@ -3269,16 +3266,16 @@
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N5" s="6">
         <v>1</v>
@@ -3292,21 +3289,21 @@
       <c r="E6" s="123"/>
       <c r="F6" s="123"/>
       <c r="G6" s="123" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H6" s="123"/>
       <c r="I6" s="123"/>
       <c r="J6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N6" s="6">
         <v>2</v>
@@ -3320,21 +3317,21 @@
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="123" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H7" s="123"/>
       <c r="I7" s="123"/>
       <c r="J7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N7" s="6">
         <v>4</v>
@@ -3348,21 +3345,21 @@
       <c r="E8" s="123"/>
       <c r="F8" s="123"/>
       <c r="G8" s="123" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H8" s="123"/>
       <c r="I8" s="123"/>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N8" s="6">
         <v>3</v>
@@ -3374,13 +3371,13 @@
       <c r="C9" s="123"/>
       <c r="D9" s="128"/>
       <c r="E9" s="122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G9" s="124" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>7</v>
@@ -3389,16 +3386,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N9" s="6">
         <v>5</v>
@@ -3412,21 +3409,21 @@
       <c r="E10" s="123"/>
       <c r="F10" s="123"/>
       <c r="G10" s="123" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H10" s="123"/>
       <c r="I10" s="123"/>
       <c r="J10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N10" s="6">
         <v>4</v>
@@ -3440,21 +3437,21 @@
       <c r="E11" s="123"/>
       <c r="F11" s="123"/>
       <c r="G11" s="123" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H11" s="123"/>
       <c r="I11" s="123"/>
       <c r="J11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N11" s="6">
         <v>2</v>
@@ -3468,21 +3465,21 @@
       <c r="E12" s="123"/>
       <c r="F12" s="123"/>
       <c r="G12" s="123" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H12" s="123"/>
       <c r="I12" s="123"/>
       <c r="J12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N12" s="6">
         <v>3</v>
@@ -3494,13 +3491,13 @@
       <c r="C13" s="123"/>
       <c r="D13" s="128"/>
       <c r="E13" s="122" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G13" s="124" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H13" s="122" t="s">
         <v>7</v>
@@ -3509,16 +3506,16 @@
         <v>10</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N13" s="6">
         <v>1</v>
@@ -3532,21 +3529,21 @@
       <c r="E14" s="123"/>
       <c r="F14" s="123"/>
       <c r="G14" s="123" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H14" s="123"/>
       <c r="I14" s="123"/>
       <c r="J14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N14" s="6">
         <v>4</v>
@@ -3560,21 +3557,21 @@
       <c r="E15" s="123"/>
       <c r="F15" s="123"/>
       <c r="G15" s="123" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H15" s="123"/>
       <c r="I15" s="123"/>
       <c r="J15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N15" s="6">
         <v>5</v>
@@ -3588,21 +3585,21 @@
       <c r="E16" s="123"/>
       <c r="F16" s="123"/>
       <c r="G16" s="123" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H16" s="123"/>
       <c r="I16" s="123"/>
       <c r="J16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N16" s="6">
         <v>2</v>
@@ -3614,13 +3611,13 @@
       <c r="C17" s="123"/>
       <c r="D17" s="128"/>
       <c r="E17" s="122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="124" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G17" s="124" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" s="122" t="s">
         <v>11</v>
@@ -3629,16 +3626,16 @@
         <v>10</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N17" s="6">
         <v>3</v>
@@ -3652,21 +3649,21 @@
       <c r="E18" s="123"/>
       <c r="F18" s="123"/>
       <c r="G18" s="123" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H18" s="123"/>
       <c r="I18" s="123"/>
       <c r="J18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -3678,13 +3675,13 @@
       <c r="C19" s="123"/>
       <c r="D19" s="128"/>
       <c r="E19" s="122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>11</v>
@@ -3693,16 +3690,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N19" s="6">
         <v>4</v>
@@ -3716,21 +3713,21 @@
       <c r="E20" s="123"/>
       <c r="F20" s="123"/>
       <c r="G20" s="123" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H20" s="123"/>
       <c r="I20" s="123"/>
       <c r="J20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N20" s="6">
         <v>5</v>
@@ -3742,13 +3739,13 @@
       <c r="C21" s="123"/>
       <c r="D21" s="128"/>
       <c r="E21" s="122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="124" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
@@ -3757,16 +3754,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -3780,7 +3777,7 @@
       <c r="E22" s="123"/>
       <c r="F22" s="123"/>
       <c r="G22" s="123" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
@@ -3789,16 +3786,16 @@
         <v>6</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N22" s="6">
         <v>2</v>
@@ -3810,13 +3807,13 @@
       <c r="C23" s="123"/>
       <c r="D23" s="128"/>
       <c r="E23" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="124" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>11</v>
@@ -3825,16 +3822,16 @@
         <v>10</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N23" s="6">
         <v>4</v>
@@ -3848,21 +3845,21 @@
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
       <c r="G24" s="123" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H24" s="123"/>
       <c r="I24" s="123"/>
       <c r="J24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N24" s="6">
         <v>2</v>
@@ -3870,25 +3867,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.2" customHeight="1">
       <c r="A25" s="125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="125" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="126" t="s">
-        <v>377</v>
-      </c>
-      <c r="E25" s="122" t="s">
-        <v>79</v>
-      </c>
       <c r="F25" s="124" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G25" s="124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H25" s="122" t="s">
         <v>11</v>
@@ -3897,16 +3894,16 @@
         <v>6</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N25" s="6">
         <v>3</v>
@@ -3920,21 +3917,21 @@
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
       <c r="G26" s="123" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H26" s="123"/>
       <c r="I26" s="123"/>
       <c r="J26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N26" s="6">
         <v>4</v>
@@ -3948,21 +3945,21 @@
       <c r="E27" s="123"/>
       <c r="F27" s="123"/>
       <c r="G27" s="123" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
       <c r="J27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N27" s="6">
         <v>4</v>
@@ -3974,13 +3971,13 @@
       <c r="C28" s="123"/>
       <c r="D28" s="127"/>
       <c r="E28" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="122" t="s">
-        <v>84</v>
-      </c>
       <c r="G28" s="122" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H28" s="122" t="s">
         <v>7</v>
@@ -3989,16 +3986,16 @@
         <v>10</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N28" s="6">
         <v>1</v>
@@ -4012,21 +4009,21 @@
       <c r="E29" s="123"/>
       <c r="F29" s="123"/>
       <c r="G29" s="123" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H29" s="123"/>
       <c r="I29" s="123"/>
       <c r="J29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N29" s="6">
         <v>2</v>
@@ -4040,21 +4037,21 @@
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
       <c r="G30" s="123" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H30" s="123"/>
       <c r="I30" s="123"/>
       <c r="J30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N30" s="6">
         <v>2</v>
@@ -4068,21 +4065,21 @@
       <c r="E31" s="123"/>
       <c r="F31" s="123"/>
       <c r="G31" s="123" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H31" s="123"/>
       <c r="I31" s="123"/>
       <c r="J31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N31" s="6">
         <v>2</v>
@@ -4094,13 +4091,13 @@
       <c r="C32" s="123"/>
       <c r="D32" s="127"/>
       <c r="E32" s="122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="124" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G32" s="124" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H32" s="122" t="s">
         <v>7</v>
@@ -4109,16 +4106,16 @@
         <v>6</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N32" s="6">
         <v>3</v>
@@ -4132,21 +4129,21 @@
       <c r="E33" s="123"/>
       <c r="F33" s="123"/>
       <c r="G33" s="123" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H33" s="123"/>
       <c r="I33" s="123"/>
       <c r="J33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N33" s="6">
         <v>1</v>
@@ -4160,21 +4157,21 @@
       <c r="E34" s="123"/>
       <c r="F34" s="123"/>
       <c r="G34" s="123" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H34" s="123"/>
       <c r="I34" s="123"/>
       <c r="J34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N34" s="6">
         <v>1</v>
@@ -4188,21 +4185,21 @@
       <c r="E35" s="123"/>
       <c r="F35" s="123"/>
       <c r="G35" s="123" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H35" s="123"/>
       <c r="I35" s="123"/>
       <c r="J35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N35" s="6">
         <v>1</v>
@@ -4214,13 +4211,13 @@
       <c r="C36" s="123"/>
       <c r="D36" s="127"/>
       <c r="E36" s="122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="124" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G36" s="124" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H36" s="122" t="s">
         <v>7</v>
@@ -4229,16 +4226,16 @@
         <v>10</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N36" s="6">
         <v>3</v>
@@ -4252,21 +4249,21 @@
       <c r="E37" s="123"/>
       <c r="F37" s="123"/>
       <c r="G37" s="123" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H37" s="123"/>
       <c r="I37" s="123"/>
       <c r="J37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N37" s="6">
         <v>4</v>
@@ -4280,21 +4277,21 @@
       <c r="E38" s="123"/>
       <c r="F38" s="123"/>
       <c r="G38" s="123" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H38" s="123"/>
       <c r="I38" s="123"/>
       <c r="J38" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N38" s="6">
         <v>5</v>
@@ -4308,21 +4305,21 @@
       <c r="E39" s="123"/>
       <c r="F39" s="123"/>
       <c r="G39" s="123" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H39" s="123"/>
       <c r="I39" s="123"/>
       <c r="J39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N39" s="6">
         <v>3</v>
@@ -4334,13 +4331,13 @@
       <c r="C40" s="123"/>
       <c r="D40" s="127"/>
       <c r="E40" s="122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="124" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G40" s="124" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H40" s="122" t="s">
         <v>11</v>
@@ -4349,16 +4346,16 @@
         <v>10</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N40" s="6">
         <v>2</v>
@@ -4372,21 +4369,21 @@
       <c r="E41" s="123"/>
       <c r="F41" s="123"/>
       <c r="G41" s="123" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H41" s="123"/>
       <c r="I41" s="123"/>
       <c r="J41" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N41" s="6">
         <v>3</v>
@@ -4398,13 +4395,13 @@
       <c r="C42" s="123"/>
       <c r="D42" s="127"/>
       <c r="E42" s="122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="124" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G42" s="124" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H42" s="122" t="s">
         <v>11</v>
@@ -4413,16 +4410,16 @@
         <v>6</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N42" s="6">
         <v>2</v>
@@ -4436,21 +4433,21 @@
       <c r="E43" s="123"/>
       <c r="F43" s="123"/>
       <c r="G43" s="123" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H43" s="123"/>
       <c r="I43" s="123"/>
       <c r="J43" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N43" s="6">
         <v>3</v>
@@ -4462,13 +4459,13 @@
       <c r="C44" s="123"/>
       <c r="D44" s="127"/>
       <c r="E44" s="122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44" s="124" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G44" s="124" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
@@ -4477,16 +4474,16 @@
         <v>6</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N44" s="6">
         <v>4</v>
@@ -4500,7 +4497,7 @@
       <c r="E45" s="123"/>
       <c r="F45" s="123"/>
       <c r="G45" s="123" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>11</v>
@@ -4509,16 +4506,16 @@
         <v>6</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N45" s="6">
         <v>2</v>
@@ -4530,13 +4527,13 @@
       <c r="C46" s="123"/>
       <c r="D46" s="127"/>
       <c r="E46" s="122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G46" s="124" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H46" s="122" t="s">
         <v>11</v>
@@ -4545,16 +4542,16 @@
         <v>10</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N46" s="6">
         <v>3</v>
@@ -4568,21 +4565,21 @@
       <c r="E47" s="123"/>
       <c r="F47" s="123"/>
       <c r="G47" s="123" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H47" s="123"/>
       <c r="I47" s="123"/>
       <c r="J47" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N47" s="6">
         <v>1</v>
@@ -4590,25 +4587,25 @@
     </row>
     <row r="48" spans="1:14" ht="26.4">
       <c r="A48" s="125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="125" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="126" t="s">
+        <v>375</v>
+      </c>
+      <c r="E48" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="126" t="s">
-        <v>378</v>
-      </c>
-      <c r="E48" s="122" t="s">
-        <v>114</v>
-      </c>
       <c r="F48" s="124" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G48" s="124" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H48" s="122" t="s">
         <v>11</v>
@@ -4617,16 +4614,16 @@
         <v>6</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N48" s="6">
         <v>1</v>
@@ -4640,21 +4637,21 @@
       <c r="E49" s="123"/>
       <c r="F49" s="123"/>
       <c r="G49" s="123" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H49" s="123"/>
       <c r="I49" s="123"/>
       <c r="J49" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N49" s="6">
         <v>1</v>
@@ -4666,13 +4663,13 @@
       <c r="C50" s="123"/>
       <c r="D50" s="127"/>
       <c r="E50" s="122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F50" s="124" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G50" s="124" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H50" s="122" t="s">
         <v>7</v>
@@ -4681,16 +4678,16 @@
         <v>10</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N50" s="6">
         <v>2</v>
@@ -4704,21 +4701,21 @@
       <c r="E51" s="123"/>
       <c r="F51" s="123"/>
       <c r="G51" s="123" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H51" s="123"/>
       <c r="I51" s="123"/>
       <c r="J51" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N51" s="6">
         <v>3</v>
@@ -4732,21 +4729,21 @@
       <c r="E52" s="123"/>
       <c r="F52" s="123"/>
       <c r="G52" s="123" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H52" s="123"/>
       <c r="I52" s="123"/>
       <c r="J52" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N52" s="6">
         <v>3</v>
@@ -4754,25 +4751,25 @@
     </row>
     <row r="53" spans="1:14" ht="26.4">
       <c r="A53" s="125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="125" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="126" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E53" s="122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="124" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G53" s="124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H53" s="122" t="s">
         <v>11</v>
@@ -4781,16 +4778,16 @@
         <v>6</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N53" s="6">
         <v>4</v>
@@ -4804,21 +4801,21 @@
       <c r="E54" s="123"/>
       <c r="F54" s="123"/>
       <c r="G54" s="123" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H54" s="123"/>
       <c r="I54" s="123"/>
       <c r="J54" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N54" s="6">
         <v>4</v>
@@ -4830,13 +4827,13 @@
       <c r="C55" s="123"/>
       <c r="D55" s="127"/>
       <c r="E55" s="122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="124" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G55" s="124" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H55" s="122" t="s">
         <v>7</v>
@@ -4845,16 +4842,16 @@
         <v>10</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N55" s="6">
         <v>4</v>
@@ -4868,21 +4865,21 @@
       <c r="E56" s="123"/>
       <c r="F56" s="123"/>
       <c r="G56" s="123" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H56" s="123"/>
       <c r="I56" s="123"/>
       <c r="J56" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N56" s="6">
         <v>5</v>
@@ -4896,21 +4893,21 @@
       <c r="E57" s="123"/>
       <c r="F57" s="123"/>
       <c r="G57" s="123" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H57" s="123"/>
       <c r="I57" s="123"/>
       <c r="J57" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N57" s="6">
         <v>4</v>
@@ -4918,25 +4915,25 @@
     </row>
     <row r="58" spans="1:14" ht="26.4" customHeight="1">
       <c r="A58" s="125" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="125" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="126" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="126" t="s">
-        <v>380</v>
-      </c>
-      <c r="E58" s="122" t="s">
-        <v>140</v>
-      </c>
       <c r="F58" s="124" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G58" s="124" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H58" s="122" t="s">
         <v>7</v>
@@ -4945,16 +4942,16 @@
         <v>6</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N58" s="6">
         <v>5</v>
@@ -4968,23 +4965,23 @@
       <c r="E59" s="123"/>
       <c r="F59" s="123"/>
       <c r="G59" s="123" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H59" s="123"/>
       <c r="I59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N59" s="6">
         <v>5</v>
@@ -4998,23 +4995,23 @@
       <c r="E60" s="123"/>
       <c r="F60" s="123"/>
       <c r="G60" s="123" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H60" s="123"/>
       <c r="I60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N60" s="6">
         <v>5</v>
@@ -5028,23 +5025,23 @@
       <c r="E61" s="123"/>
       <c r="F61" s="123"/>
       <c r="G61" s="123" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H61" s="123"/>
       <c r="I61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N61" s="6">
         <v>4</v>
@@ -5058,23 +5055,23 @@
       <c r="E62" s="123"/>
       <c r="F62" s="123"/>
       <c r="G62" s="123" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H62" s="123"/>
       <c r="I62" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N62" s="6">
         <v>3</v>
@@ -5088,23 +5085,23 @@
       <c r="E63" s="123"/>
       <c r="F63" s="123"/>
       <c r="G63" s="123" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H63" s="123"/>
       <c r="I63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N63" s="6">
         <v>2</v>
@@ -5118,23 +5115,23 @@
       <c r="E64" s="123"/>
       <c r="F64" s="123"/>
       <c r="G64" s="123" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H64" s="123"/>
       <c r="I64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N64" s="6">
         <v>1</v>
@@ -5146,13 +5143,13 @@
       <c r="C65" s="123"/>
       <c r="D65" s="127"/>
       <c r="E65" s="122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F65" s="124" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G65" s="124" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H65" s="122" t="s">
         <v>7</v>
@@ -5161,16 +5158,16 @@
         <v>10</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N65" s="6">
         <v>5</v>
@@ -5184,23 +5181,23 @@
       <c r="E66" s="123"/>
       <c r="F66" s="123"/>
       <c r="G66" s="123" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H66" s="123"/>
       <c r="I66" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N66" s="6">
         <v>0</v>
@@ -5214,23 +5211,23 @@
       <c r="E67" s="123"/>
       <c r="F67" s="123"/>
       <c r="G67" s="123" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H67" s="123"/>
       <c r="I67" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N67" s="6">
         <v>4</v>
@@ -5244,23 +5241,23 @@
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
       <c r="G68" s="123" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H68" s="123"/>
       <c r="I68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N68" s="6">
         <v>2</v>
@@ -5274,23 +5271,23 @@
       <c r="E69" s="123"/>
       <c r="F69" s="123"/>
       <c r="G69" s="123" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H69" s="123"/>
       <c r="I69" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N69" s="6">
         <v>3</v>
@@ -5304,23 +5301,23 @@
       <c r="E70" s="123"/>
       <c r="F70" s="123"/>
       <c r="G70" s="123" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H70" s="123"/>
       <c r="I70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N70" s="6">
         <v>3</v>
@@ -5334,23 +5331,23 @@
       <c r="E71" s="123"/>
       <c r="F71" s="123"/>
       <c r="G71" s="123" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H71" s="123"/>
       <c r="I71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N71" s="6">
         <v>3</v>
@@ -5358,25 +5355,25 @@
     </row>
     <row r="72" spans="1:14" ht="26.4" customHeight="1">
       <c r="A72" s="125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B72" s="125" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D72" s="126" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E72" s="122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F72" s="124" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G72" s="124" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H72" s="122" t="s">
         <v>7</v>
@@ -5385,16 +5382,16 @@
         <v>6</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N72" s="6">
         <v>5</v>
@@ -5408,23 +5405,23 @@
       <c r="E73" s="123"/>
       <c r="F73" s="123"/>
       <c r="G73" s="123" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H73" s="123"/>
       <c r="I73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N73" s="6">
         <v>5</v>
@@ -5438,23 +5435,23 @@
       <c r="E74" s="123"/>
       <c r="F74" s="123"/>
       <c r="G74" s="123" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H74" s="123"/>
       <c r="I74" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N74" s="6">
         <v>5</v>
@@ -5468,23 +5465,23 @@
       <c r="E75" s="123"/>
       <c r="F75" s="123"/>
       <c r="G75" s="123" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H75" s="123"/>
       <c r="I75" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N75" s="6">
         <v>4</v>
@@ -5498,23 +5495,23 @@
       <c r="E76" s="123"/>
       <c r="F76" s="123"/>
       <c r="G76" s="123" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H76" s="123"/>
       <c r="I76" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N76" s="6">
         <v>3</v>
@@ -5528,23 +5525,23 @@
       <c r="E77" s="123"/>
       <c r="F77" s="123"/>
       <c r="G77" s="123" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H77" s="123"/>
       <c r="I77" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N77" s="6">
         <v>2</v>
@@ -5558,23 +5555,23 @@
       <c r="E78" s="123"/>
       <c r="F78" s="123"/>
       <c r="G78" s="123" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H78" s="123"/>
       <c r="I78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N78" s="6">
         <v>1</v>
@@ -5586,13 +5583,13 @@
       <c r="C79" s="123"/>
       <c r="D79" s="127"/>
       <c r="E79" s="122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F79" s="124" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G79" s="124" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H79" s="122" t="s">
         <v>7</v>
@@ -5601,16 +5598,16 @@
         <v>10</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N79" s="6">
         <v>5</v>
@@ -5624,23 +5621,23 @@
       <c r="E80" s="123"/>
       <c r="F80" s="123"/>
       <c r="G80" s="123" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H80" s="123"/>
       <c r="I80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N80" s="6">
         <v>1</v>
@@ -5654,23 +5651,23 @@
       <c r="E81" s="123"/>
       <c r="F81" s="123"/>
       <c r="G81" s="123" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H81" s="123"/>
       <c r="I81" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N81" s="6">
         <v>4</v>
@@ -5684,23 +5681,23 @@
       <c r="E82" s="123"/>
       <c r="F82" s="123"/>
       <c r="G82" s="123" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H82" s="123"/>
       <c r="I82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N82" s="6">
         <v>2</v>
@@ -5714,23 +5711,23 @@
       <c r="E83" s="123"/>
       <c r="F83" s="123"/>
       <c r="G83" s="123" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H83" s="123"/>
       <c r="I83" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N83" s="6">
         <v>3</v>
@@ -5744,23 +5741,23 @@
       <c r="E84" s="123"/>
       <c r="F84" s="123"/>
       <c r="G84" s="123" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H84" s="123"/>
       <c r="I84" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N84" s="6">
         <v>3</v>
@@ -5774,23 +5771,23 @@
       <c r="E85" s="123"/>
       <c r="F85" s="123"/>
       <c r="G85" s="123" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H85" s="123"/>
       <c r="I85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K85" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="M85" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="N85" s="6">
         <v>3</v>
@@ -5798,6 +5795,119 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A47"/>
+    <mergeCell ref="B25:B47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C25:C47"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="D25:D47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D2:D24"/>
+    <mergeCell ref="A58:A71"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="C58:C71"/>
+    <mergeCell ref="A72:A85"/>
+    <mergeCell ref="C72:C85"/>
+    <mergeCell ref="B72:B85"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="E79:E85"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D71"/>
+    <mergeCell ref="D72:D85"/>
+    <mergeCell ref="H65:H71"/>
+    <mergeCell ref="H72:H78"/>
+    <mergeCell ref="H58:H64"/>
+    <mergeCell ref="H79:H85"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="F65:F71"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="G72:G78"/>
+    <mergeCell ref="G79:G85"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="E36:E39"/>
@@ -5821,119 +5931,6 @@
     <mergeCell ref="F55:F57"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="H72:H78"/>
-    <mergeCell ref="H58:H64"/>
-    <mergeCell ref="H79:H85"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="G72:G78"/>
-    <mergeCell ref="G79:G85"/>
-    <mergeCell ref="A58:A71"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="C58:C71"/>
-    <mergeCell ref="A72:A85"/>
-    <mergeCell ref="C72:C85"/>
-    <mergeCell ref="B72:B85"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D71"/>
-    <mergeCell ref="D72:D85"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="C2:C24"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D2:D24"/>
-    <mergeCell ref="A25:A47"/>
-    <mergeCell ref="B25:B47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C25:C47"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="D25:D47"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
@@ -6003,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6038,7 +6035,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6073,7 +6070,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -33026,10 +33023,10 @@
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -33076,7 +33073,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
@@ -33106,7 +33103,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -33196,7 +33193,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>33</v>
+        <v>492</v>
       </c>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -33223,10 +33220,10 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>36</v>
       </c>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
@@ -33267,24 +33264,24 @@
     </row>
     <row r="8" spans="1:24" ht="17.25" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
+      <c r="B8" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
       <c r="R8" s="31"/>
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
@@ -33294,66 +33291,66 @@
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="147"/>
+      <c r="C9" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
       <c r="M9" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S9" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="V9" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17.25" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="142"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="137"/>
+      <c r="K10" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="133"/>
       <c r="M10" s="40"/>
       <c r="N10" s="41"/>
       <c r="O10" s="42"/>
@@ -33368,12 +33365,12 @@
     <row r="11" spans="1:24" ht="30" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="136"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
       <c r="I11" s="44"/>
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
@@ -33381,7 +33378,7 @@
       <c r="M11" s="40"/>
       <c r="N11" s="7" t="str">
         <f>CONCATENATE("String fieldSeparator = ","""","$$$###$$$","""",";",CHAR(10),
-"String headerSeparator = ","""","#$#$#$#$#","""",";",CHAR(10),"String prefix = ","""","form","""",";",CHAR(10),"String matrixStr =","""","$param","""",";",CHAR(10),"SpreadsheetRuleUtils spreadsheetRuleUtils = new SpreadsheetRuleUtils(matrixStr, fieldSeparator, headerSeparator);",CHAR(10),"Collection&lt;Form&gt; formsResult = spreadsheetRuleUtils.stringArrayToBeans(prefix, Form.class);",CHAR(10),"kcontext.getKieRuntime().setGlobal(","""",F14,"""",",","formsResult",");",CHAR(10),"RuleLogging.log(","""","DEBUG","""",", ","""","Rule - ",M14," - fired","""",");")</f>
+"String headerSeparator = ","""","#$#$#$#$#","""",";",CHAR(10),"String prefix = ","""","form","""",";",CHAR(10),"String matrixStr =","""","$param","""",";",CHAR(10),"SpreadsheetRuleUtils spreadsheetRuleUtils = new SpreadsheetRuleUtils(matrixStr, fieldSeparator, headerSeparator);",CHAR(10),"Collection&lt;Form&gt; formsResult = spreadsheetRuleUtils.stringArrayToBeans(prefix, Form.class);",CHAR(10),"kcontext.getKieRuntime().setGlobal(","""",F13,"""",",","formsResult",");",CHAR(10),"RuleLogging.log(","""","DEBUG","""",", ","""","Rule - ",M13," - fired","""",");")</f>
         <v>String fieldSeparator = "$$$###$$$";
 String headerSeparator = "#$#$#$#$#";
 String prefix = "form";
@@ -33396,10 +33393,10 @@
         <v>if (!$1.equals("")) {kcontext.getKieRuntime().setGlobal($1,$2);}</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",T21,"""",").setFocus()",";}")</f>
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",T20,"""",").setFocus()",";}")</f>
         <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "validation").setFocus();}</v>
       </c>
       <c r="R11" s="37"/>
@@ -33411,104 +33408,104 @@
     <row r="12" spans="1:24" ht="17.25" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="139"/>
+      <c r="C12" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="51" t="s">
-        <v>132</v>
-      </c>
       <c r="N12" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="P12" s="53" t="s">
-        <v>138</v>
-      </c>
       <c r="Q12" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R12" s="55"/>
       <c r="S12" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T12" s="55"/>
       <c r="U12" s="55"/>
       <c r="V12" s="57"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="32"/>
       <c r="C13" s="58">
         <v>0</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="58">
         <v>1</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="59" t="str">
-        <f t="shared" ref="I13:I15" si="0">CONCATENATE("Initialize variable ",F13)</f>
-        <v>Initialize variable _result</v>
+        <f t="shared" ref="I13:I14" si="0">CONCATENATE("Initialize variable ",F13)</f>
+        <v>Initialize variable forms</v>
       </c>
       <c r="J13" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F13, " initialized with an empty Map"))</f>
-        <v>Variable _result initialized with an empty Map</v>
+        <f>(CONCATENATE("Variable ",F13, " initialized with an collection of forms from the spreadsheet"))</f>
+        <v>Variable forms initialized with an collection of forms from the spreadsheet</v>
       </c>
       <c r="K13" s="60" t="str">
-        <f t="shared" ref="K13:K15" si="1">CONCATENATE("Inicializar variable ",F13)</f>
-        <v>Inicializar variable _result</v>
+        <f t="shared" ref="K13:K14" si="1">CONCATENATE("Inicializar variable ",F13)</f>
+        <v>Inicializar variable forms</v>
       </c>
       <c r="L13" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F13, " inicializada con un mapa vacío"))</f>
-        <v>Variable _result inicializada con un mapa vacío</v>
+        <f>(CONCATENATE("Variable ",F13, " inicializada con todos formularios presentes en la hoja de cálculo"))</f>
+        <v>Variable forms inicializada con todos formularios presentes en la hoja de cálculo</v>
       </c>
       <c r="M13" s="61" t="str">
-        <f t="shared" ref="M13:M15" si="2">I13</f>
-        <v>Initialize variable _result</v>
-      </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61" t="str">
-        <f>CONCATENATE("""",F13,"""",",","new HashMap()")</f>
-        <v>"_result",new HashMap()</v>
-      </c>
+        <f t="shared" ref="M13:M14" si="2">I13</f>
+        <v>Initialize variable forms</v>
+      </c>
+      <c r="N13" s="61" t="e">
+        <f ca="1">TEXTJOIN("$$$###$$$",FALSE, Questions!1:1,"#$#$#$#$#",Questions!2:85)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O13" s="61"/>
       <c r="P13" s="62" t="str">
-        <f t="shared" ref="P13:P15" si="3">CONCATENATE("""","DEBUG","""",",","""",L13,"""")</f>
-        <v>"DEBUG","Variable _result inicializada con un mapa vacío"</v>
+        <f t="shared" ref="P13:P14" si="3">CONCATENATE("""","DEBUG","""",",","""",L13,"""")</f>
+        <v>"DEBUG","Variable forms inicializada con todos formularios presentes en la hoja de cálculo"</v>
       </c>
       <c r="Q13" s="63"/>
       <c r="R13" s="64" t="s">
         <v>22</v>
       </c>
       <c r="S13" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T13" s="65" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="U13" s="65" t="s">
         <v>22</v>
@@ -33524,54 +33521,54 @@
         <v>0</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="58">
         <v>2</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>177</v>
+      <c r="F14" s="67" t="s">
+        <v>179</v>
       </c>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>Initialize variable forms</v>
+        <v>Initialize variable accumulatedWeighting</v>
       </c>
       <c r="J14" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F14, " initialized with an collection of forms from the spreadsheet"))</f>
-        <v>Variable forms initialized with an collection of forms from the spreadsheet</v>
+        <f>(CONCATENATE("Variable ",F14, " initialized with zero"))</f>
+        <v>Variable accumulatedWeighting initialized with zero</v>
       </c>
       <c r="K14" s="60" t="str">
         <f t="shared" si="1"/>
-        <v>Inicializar variable forms</v>
+        <v>Inicializar variable accumulatedWeighting</v>
       </c>
       <c r="L14" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F14, " inicializada con todos formularios presentes en la hoja de cálculo"))</f>
-        <v>Variable forms inicializada con todos formularios presentes en la hoja de cálculo</v>
+        <f>(CONCATENATE("Variable ",F14, " inicializada con cero"))</f>
+        <v>Variable accumulatedWeighting inicializada con cero</v>
       </c>
       <c r="M14" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>Initialize variable forms</v>
-      </c>
-      <c r="N14" s="61" t="e">
-        <f ca="1">TEXTJOIN("$$$###$$$",FALSE, Questions!1:1,"#$#$#$#$#",Questions!2:85)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O14" s="61"/>
+        <v>Initialize variable accumulatedWeighting</v>
+      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61" t="str">
+        <f>CONCATENATE("""",F14,"""",",","0.0d")</f>
+        <v>"accumulatedWeighting",0.0d</v>
+      </c>
       <c r="P14" s="62" t="str">
         <f t="shared" si="3"/>
-        <v>"DEBUG","Variable forms inicializada con todos formularios presentes en la hoja de cálculo"</v>
+        <v>"DEBUG","Variable accumulatedWeighting inicializada con cero"</v>
       </c>
       <c r="Q14" s="63"/>
       <c r="R14" s="64" t="s">
         <v>22</v>
       </c>
       <c r="S14" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T14" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U14" s="65" t="s">
         <v>22</v>
@@ -33580,61 +33577,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="17.25" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="58">
+      <c r="C15" s="68">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="58">
+      <c r="D15" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="68">
         <v>3</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v>Initialize variable accumulatedWeighting</v>
-      </c>
-      <c r="J15" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F15, " initialized with zero"))</f>
-        <v>Variable accumulatedWeighting initialized with zero</v>
-      </c>
-      <c r="K15" s="60" t="str">
-        <f t="shared" si="1"/>
-        <v>Inicializar variable accumulatedWeighting</v>
-      </c>
-      <c r="L15" s="60" t="str">
-        <f>(CONCATENATE("Variable ",F15, " inicializada con cero"))</f>
-        <v>Variable accumulatedWeighting inicializada con cero</v>
-      </c>
+      <c r="F15" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Initialize variable accumulatedWeighting</v>
+        <f>CONCATENATE("Set next focus to ", T20, " from ",S12)</f>
+        <v>Set next focus to validation from initialization</v>
       </c>
       <c r="N15" s="61"/>
-      <c r="O15" s="61" t="str">
-        <f>CONCATENATE("""",F15,"""",",","0.0d")</f>
-        <v>"accumulatedWeighting",0.0d</v>
-      </c>
-      <c r="P15" s="62" t="str">
-        <f t="shared" si="3"/>
-        <v>"DEBUG","Variable accumulatedWeighting inicializada con cero"</v>
-      </c>
-      <c r="Q15" s="63"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="71" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M15,"""")</f>
+        <v>"DEBUG","Set next focus to validation from initialization"</v>
+      </c>
+      <c r="Q15" s="61" t="b">
+        <v>1</v>
+      </c>
       <c r="R15" s="64" t="s">
         <v>22</v>
       </c>
       <c r="S15" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T15" s="65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U15" s="65" t="s">
         <v>22</v>
@@ -33643,159 +33627,146 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="68">
-        <v>0</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="68">
-        <v>4</v>
-      </c>
-      <c r="F16" s="69" t="s">
+    <row r="16" spans="1:24" ht="16.5" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61" t="str">
-        <f>CONCATENATE("Set next focus to ", T21, " from ",S12)</f>
-        <v>Set next focus to validation from initialization</v>
-      </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="71" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M16,"""")</f>
-        <v>"DEBUG","Set next focus to validation from initialization"</v>
-      </c>
-      <c r="Q16" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="R16" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="T16" s="65" t="s">
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="72"/>
+    </row>
+    <row r="17" spans="1:24" ht="18">
+      <c r="A17" s="18"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="U16" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="V16" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="149"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="72"/>
-    </row>
-    <row r="18" spans="1:24" ht="18">
+      <c r="O17" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="76"/>
+    </row>
+    <row r="18" spans="1:24" ht="17.25" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="73"/>
-      <c r="C18" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O18" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R18" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S18" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="T18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="U18" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W18" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="137"/>
+      <c r="K18" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" s="133"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" s="148"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
       <c r="X18" s="76"/>
     </row>
-    <row r="19" spans="1:24" ht="17.25" customHeight="1">
+    <row r="19" spans="1:24" ht="21" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="73"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="141"/>
-      <c r="K19" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="142"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="77"/>
-      <c r="N19" s="143" t="s">
+      <c r="N19" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="42"/>
+      <c r="P19" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S36,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "extraction").setFocus();}</v>
+      </c>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
@@ -33803,149 +33774,177 @@
       <c r="W19" s="38"/>
       <c r="X19" s="76"/>
     </row>
-    <row r="20" spans="1:24" ht="21" customHeight="1">
+    <row r="20" spans="1:24" ht="18">
       <c r="A20" s="18"/>
       <c r="B20" s="73"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="O20" s="79" t="s">
+      <c r="C20" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="80" t="s">
+      <c r="O20" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R20" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S37,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "extraction").setFocus();}</v>
-      </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="P20" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
       <c r="X20" s="76"/>
     </row>
-    <row r="21" spans="1:24" ht="18">
+    <row r="21" spans="1:24" ht="19.5" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="73"/>
-      <c r="C21" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N21" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="O21" s="82" t="s">
+      <c r="C21" s="84">
+        <v>1</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="84">
+        <v>1</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="88" t="str">
+        <f t="shared" ref="M21:M22" si="4">I21</f>
+        <v>Form\'s description cannot be null</v>
+      </c>
+      <c r="N21" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90" t="str">
+        <f t="shared" ref="P21:P22" si="5">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F21&amp;" "&amp;G21&amp;" "&amp;H21)," ","."),"""",",","""",$I$16,"""",",","""",CONCATENATE(C21,D21,E21)," [",SUBSTITUTE(TRIM(F21&amp;" "&amp;G21&amp;" "&amp;H21)," ","."),"] - ",I21,"""",",","""",I21,"""",",","""",J21,"""",",","""", $K$16,"""",",","""",CONCATENATE(C21,D21,E21)," [",SUBSTITUTE(TRIM(F21&amp;" "&amp;G21&amp;" "&amp;H21)," ","."),"] - ",K21,"""",",","""",K21,"""",",","""",L21,"""",",","$form.getDescription()",",","$form.getId()")</f>
+        <v>"form[$form.getId()]","form.description","","1.1 [form.description] - Form\'s description cannot be null","Form\'s description cannot be null","A name with some value different than null","","1.1 [form.description] - La descripción de la forma no pude ser nulo","La descripción de la forma no pude ser nulo","Una descripción con algún valor diferente de nulo",$form.getDescription(),$form.getId()</v>
+      </c>
+      <c r="Q21" s="62" t="str">
+        <f t="shared" ref="Q21:Q22" si="6">CONCATENATE("""","ERROR","""",",","""",I21,"""")</f>
+        <v>"ERROR","Form\'s description cannot be null"</v>
+      </c>
+      <c r="R21" s="91"/>
+      <c r="S21" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q21" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="R21" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="76"/>
-    </row>
-    <row r="22" spans="1:24" ht="19.5" customHeight="1">
+      <c r="U21" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="V21" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" s="93"/>
+    </row>
+    <row r="22" spans="1:24" ht="18" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="73"/>
       <c r="C22" s="84">
         <v>1</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="87" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J22" s="87" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K22" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="88" t="str">
+        <f t="shared" si="4"/>
+        <v>Form\'s description cannot be empty</v>
+      </c>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="L22" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="M22" s="88" t="str">
-        <f t="shared" ref="M22:M23" si="4">I22</f>
-        <v>Form\'s description cannot be null</v>
-      </c>
-      <c r="N22" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" s="89"/>
       <c r="P22" s="90" t="str">
-        <f t="shared" ref="P22:P23" si="5">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F22&amp;" "&amp;G22&amp;" "&amp;H22)," ","."),"""",",","""",$I$17,"""",",","""",CONCATENATE(C22,D22,E22)," [",SUBSTITUTE(TRIM(F22&amp;" "&amp;G22&amp;" "&amp;H22)," ","."),"] - ",I22,"""",",","""",I22,"""",",","""",J22,"""",",","""", $K$17,"""",",","""",CONCATENATE(C22,D22,E22)," [",SUBSTITUTE(TRIM(F22&amp;" "&amp;G22&amp;" "&amp;H22)," ","."),"] - ",K22,"""",",","""",K22,"""",",","""",L22,"""",",","$form.getDescription()",",","$form.getId()")</f>
-        <v>"form[$form.getId()]","form.description","","1.1 [form.description] - Form\'s description cannot be null","Form\'s description cannot be null","A name with some value different than null","","1.1 [form.description] - La descripción de la forma no pude ser nulo","La descripción de la forma no pude ser nulo","Una descripción con algún valor diferente de nulo",$form.getDescription(),$form.getId()</v>
+        <f t="shared" si="5"/>
+        <v>"form[$form.getId()]","form.description","","1.2 [form.description] - Form\'s description cannot be empty","Form\'s description cannot be empty","A name with some value different than empty","","1.2 [form.description] - La descripción de la forma no pude ser vacío","La descripción de la forma no pude ser vacío","Una descripción con algún valor diferente de vacío",$form.getDescription(),$form.getId()</v>
       </c>
       <c r="Q22" s="62" t="str">
-        <f t="shared" ref="Q22:Q23" si="6">CONCATENATE("""","ERROR","""",",","""",I22,"""")</f>
-        <v>"ERROR","Form\'s description cannot be null"</v>
-      </c>
-      <c r="R22" s="91"/>
+        <f t="shared" si="6"/>
+        <v>"ERROR","Form\'s description cannot be empty"</v>
+      </c>
+      <c r="R22" s="62"/>
       <c r="S22" s="92" t="s">
         <v>22</v>
       </c>
       <c r="T22" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U22" s="64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="V22" s="92" t="s">
         <v>29</v>
@@ -33962,219 +33961,191 @@
         <v>1</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="84">
-        <v>2</v>
-      </c>
-      <c r="F23" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>195</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="86"/>
       <c r="H23" s="86"/>
-      <c r="I23" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" s="88" t="str">
-        <f t="shared" si="4"/>
-        <v>Form\'s description cannot be empty</v>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", S36, " from ",F21," ",T28)</f>
+        <v>Set next focus to extraction from form validation</v>
       </c>
       <c r="N23" s="89"/>
-      <c r="O23" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="P23" s="90" t="str">
-        <f t="shared" si="5"/>
-        <v>"form[$form.getId()]","form.description","","1.2 [form.description] - Form\'s description cannot be empty","Form\'s description cannot be empty","A name with some value different than empty","","1.2 [form.description] - La descripción de la forma no pude ser vacío","La descripción de la forma no pude ser vacío","Una descripción con algún valor diferente de vacío",$form.getDescription(),$form.getId()</v>
-      </c>
+      <c r="O23" s="89"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>"ERROR","Form\'s description cannot be empty"</v>
-      </c>
-      <c r="R23" s="62"/>
+        <f>CONCATENATE("""","DEBUG","""",",","""",M23,"""")</f>
+        <v>"DEBUG","Set next focus to extraction from form validation"</v>
+      </c>
+      <c r="R23" s="62" t="b">
+        <v>1</v>
+      </c>
       <c r="S23" s="92" t="s">
         <v>22</v>
       </c>
       <c r="T23" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U23" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V23" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="W23" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="X23" s="93"/>
-    </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1">
+      <c r="W23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="95"/>
+    </row>
+    <row r="24" spans="1:24" ht="17.25" customHeight="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="84">
-        <v>1</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="84">
-        <v>3</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", S37, " from ",F22," ",T29)</f>
-        <v>Set next focus to extraction from form validation</v>
-      </c>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="62" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M24,"""")</f>
-        <v>"DEBUG","Set next focus to extraction from form validation"</v>
-      </c>
-      <c r="R24" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="T24" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="U24" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="V24" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="W24" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="X24" s="95"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.25" customHeight="1">
+      <c r="B24" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="96"/>
+    </row>
+    <row r="25" spans="1:24" ht="18">
       <c r="A25" s="18"/>
-      <c r="B25" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="96"/>
-    </row>
-    <row r="26" spans="1:24" ht="18">
+      <c r="B25" s="73"/>
+      <c r="C25" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" s="76"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="73"/>
-      <c r="C26" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="T26" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="V26" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="137"/>
+      <c r="K26" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="133"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" s="150"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
       <c r="X26" s="76"/>
     </row>
-    <row r="27" spans="1:24" ht="17.25" customHeight="1">
+    <row r="27" spans="1:24" ht="18" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="73"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="141"/>
-      <c r="K27" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="142"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="77"/>
-      <c r="N27" s="143" t="s">
-        <v>186</v>
-      </c>
-      <c r="O27" s="144"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="42"/>
+      <c r="N27" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="P27" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R27" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S57,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-execution").setFocus();}</v>
+      </c>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
@@ -34182,147 +34153,173 @@
       <c r="W27" s="38"/>
       <c r="X27" s="76"/>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1">
+    <row r="28" spans="1:24" ht="18">
       <c r="A28" s="18"/>
       <c r="B28" s="73"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="P28" s="80" t="s">
+      <c r="C28" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="Q28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="R28" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S58,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-execution").setFocus();}</v>
-      </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="P28" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q28" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="R28" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
       <c r="X28" s="76"/>
     </row>
-    <row r="29" spans="1:24" ht="18">
+    <row r="29" spans="1:24" ht="18.75" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="73"/>
-      <c r="C29" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M29" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N29" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="O29" s="81" t="s">
+      <c r="C29" s="84">
+        <v>2</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="84">
+        <v>1</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="88" t="str">
+        <f t="shared" ref="M29:M30" si="7">I29</f>
+        <v>Form\'s questions cannot be null</v>
+      </c>
+      <c r="N29" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" s="98"/>
+      <c r="P29" s="90" t="str">
+        <f t="shared" ref="P29:P30" si="8">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F29&amp;" "&amp;G29&amp;" "&amp;H29)," ","."),"""",",","""",$I$16,"""",",","""",CONCATENATE(C29,D29,E29)," [",SUBSTITUTE(TRIM(F29&amp;" "&amp;G29&amp;" "&amp;H29)," ","."),"] - ",I29,"""",",","""",I29,"""",",","""",J29,"""",",","""", $K$16,"""",",","""",CONCATENATE(C29,D29,E29)," [",SUBSTITUTE(TRIM(F29&amp;" "&amp;G29&amp;" "&amp;H29)," ","."),"] - ",K29,"""",",","""",K29,"""",",","""",L29,"""",",","$form.getQuestions()",",","$form.getId()")</f>
+        <v>"form[$form.getId()]","question","","2.1 [question] - Form\'s questions cannot be null","Form\'s questions cannot be null","An question list with some value different than null","","2.1 [question] - Las preguntas de la forma no pueden ser nulas","Las preguntas de la forma no pueden ser nulas","Un listado de preguntas diferente de nulo",$form.getQuestions(),$form.getId()</v>
+      </c>
+      <c r="Q29" s="99" t="str">
+        <f t="shared" ref="Q29:Q30" si="9">CONCATENATE("""","ERROR","""",",","""",I29,"""")</f>
+        <v>"ERROR","Form\'s questions cannot be null"</v>
+      </c>
+      <c r="R29" s="91"/>
+      <c r="S29" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q29" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="R29" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="76"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.75" customHeight="1">
+      <c r="U29" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="V29" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="W29" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="X29" s="93"/>
+    </row>
+    <row r="30" spans="1:24" ht="17.25" customHeight="1">
       <c r="A30" s="18"/>
       <c r="B30" s="73"/>
       <c r="C30" s="84">
         <v>2</v>
       </c>
       <c r="D30" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G30" s="86"/>
       <c r="H30" s="86"/>
       <c r="I30" s="87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J30" s="87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K30" s="87" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L30" s="87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M30" s="88" t="str">
-        <f t="shared" ref="M30:M31" si="7">I30</f>
-        <v>Form\'s questions cannot be null</v>
-      </c>
-      <c r="N30" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="O30" s="98"/>
+        <f t="shared" si="7"/>
+        <v>Form\'s questions cannot be empty</v>
+      </c>
+      <c r="N30" s="100"/>
+      <c r="O30" s="89" t="s">
+        <v>198</v>
+      </c>
       <c r="P30" s="90" t="str">
-        <f t="shared" ref="P30:P31" si="8">CONCATENATE("""",CONCATENATE("form[","$form.getId()","]"),"""",",","""",SUBSTITUTE(TRIM(F30&amp;" "&amp;G30&amp;" "&amp;H30)," ","."),"""",",","""",$I$17,"""",",","""",CONCATENATE(C30,D30,E30)," [",SUBSTITUTE(TRIM(F30&amp;" "&amp;G30&amp;" "&amp;H30)," ","."),"] - ",I30,"""",",","""",I30,"""",",","""",J30,"""",",","""", $K$17,"""",",","""",CONCATENATE(C30,D30,E30)," [",SUBSTITUTE(TRIM(F30&amp;" "&amp;G30&amp;" "&amp;H30)," ","."),"] - ",K30,"""",",","""",K30,"""",",","""",L30,"""",",","$form.getQuestions()",",","$form.getId()")</f>
-        <v>"form[$form.getId()]","question","","2.1 [question] - Form\'s questions cannot be null","Form\'s questions cannot be null","An question list with some value different than null","","2.1 [question] - Las preguntas de la forma no pueden ser nulas","Las preguntas de la forma no pueden ser nulas","Un listado de preguntas diferente de nulo",$form.getQuestions(),$form.getId()</v>
-      </c>
-      <c r="Q30" s="99" t="str">
-        <f t="shared" ref="Q30:Q31" si="9">CONCATENATE("""","ERROR","""",",","""",I30,"""")</f>
-        <v>"ERROR","Form\'s questions cannot be null"</v>
-      </c>
-      <c r="R30" s="91"/>
+        <f t="shared" si="8"/>
+        <v>"form[$form.getId()]","question","","2.2 [question] - Form\'s questions cannot be empty","Form\'s questions cannot be empty","An question list with some value different than empty","","2.2 [question] - Las preguntas de la forma no pueden ser vacías","Las preguntas de la forma no pueden ser vacías","Un listado de preguntas diferente de vacío",$form.getQuestions(),$form.getId()</v>
+      </c>
+      <c r="Q30" s="101" t="str">
+        <f t="shared" si="9"/>
+        <v>"ERROR","Form\'s questions cannot be empty"</v>
+      </c>
+      <c r="R30" s="62"/>
       <c r="S30" s="64" t="s">
         <v>22</v>
       </c>
       <c r="T30" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U30" s="64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="V30" s="92" t="s">
         <v>29</v>
@@ -34333,218 +34330,189 @@
       <c r="X30" s="93"/>
     </row>
     <row r="31" spans="1:24" ht="17.25" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="84">
         <v>2</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="84">
-        <v>2</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="G31" s="86"/>
       <c r="H31" s="86"/>
-      <c r="I31" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="M31" s="88" t="str">
-        <f t="shared" si="7"/>
-        <v>Form\'s questions cannot be empty</v>
-      </c>
-      <c r="N31" s="100"/>
-      <c r="O31" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="P31" s="90" t="str">
-        <f t="shared" si="8"/>
-        <v>"form[$form.getId()]","question","","2.2 [question] - Form\'s questions cannot be empty","Form\'s questions cannot be empty","An question list with some value different than empty","","2.2 [question] - Las preguntas de la forma no pueden ser vacías","Las preguntas de la forma no pueden ser vacías","Un listado de preguntas diferente de vacío",$form.getQuestions(),$form.getId()</v>
-      </c>
-      <c r="Q31" s="101" t="str">
-        <f t="shared" si="9"/>
-        <v>"ERROR","Form\'s questions cannot be empty"</v>
-      </c>
-      <c r="R31" s="62"/>
-      <c r="S31" s="64" t="s">
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", S57, " from ",F29," ",T28)</f>
+        <v>Set next focus to form-execution from question validation</v>
+      </c>
+      <c r="N31" s="102"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="62" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M31,"""")</f>
+        <v>"DEBUG","Set next focus to form-execution from question validation"</v>
+      </c>
+      <c r="R31" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="92" t="s">
         <v>22</v>
       </c>
       <c r="T31" s="64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U31" s="64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V31" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="W31" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="X31" s="93"/>
+      <c r="W31" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="95"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="84">
-        <v>2</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="84">
-        <v>3</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", S58, " from ",F30," ",T29)</f>
-        <v>Set next focus to form-execution from question validation</v>
-      </c>
-      <c r="N32" s="102"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="62" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M32,"""")</f>
-        <v>"DEBUG","Set next focus to form-execution from question validation"</v>
-      </c>
-      <c r="R32" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="S32" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="T32" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="U32" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="V32" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="W32" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="X32" s="95"/>
+      <c r="B32" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="96"/>
     </row>
     <row r="33" spans="1:23" ht="17.25" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="130" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="96"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T33" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="V33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="W33" s="106"/>
     </row>
     <row r="34" spans="1:23" ht="17.25" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P34" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q34" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R34" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="U34" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="V34" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="137"/>
+      <c r="K34" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="133"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
       <c r="W34" s="106"/>
     </row>
     <row r="35" spans="1:23" ht="17.25" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" s="141"/>
-      <c r="K35" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="142"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
       <c r="M35" s="77"/>
-      <c r="N35" s="107" t="s">
+      <c r="N35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="P35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S43,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "extraction").setFocus();}</v>
+      </c>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
@@ -34555,135 +34523,152 @@
     <row r="36" spans="1:23" ht="17.25" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="79" t="s">
+      <c r="C36" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="O36" s="108" t="s">
+      <c r="O36" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q36" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S44,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "extraction").setFocus();}</v>
-      </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
+      <c r="P36" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
       <c r="W36" s="106"/>
     </row>
     <row r="37" spans="1:23" ht="17.25" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K37" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M37" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N37" s="81" t="s">
+      <c r="C37" s="109">
+        <v>3</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="109">
+        <v>1</v>
+      </c>
+      <c r="F37" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="111"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="M37" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="O37" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37" s="91" t="str">
+        <f t="shared" ref="P37:P38" si="10">CONCATENATE("""","DEBUG","""",",","""",M37,"""")</f>
+        <v>"DEBUG","Extract form questions"</v>
+      </c>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="O37" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="P37" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q37" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="106"/>
+      <c r="T37" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="U37" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="V37" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="W37" s="95"/>
     </row>
     <row r="38" spans="1:23" ht="17.25" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="109">
+      <c r="C38" s="84">
         <v>3</v>
       </c>
-      <c r="D38" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="109">
+      <c r="D38" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="84">
+        <v>2</v>
+      </c>
+      <c r="F38" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", S50, " from ",F37," ",S36)</f>
+        <v>Set next focus to execution from questions extraction</v>
+      </c>
+      <c r="N38" s="114"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="91" t="str">
+        <f t="shared" si="10"/>
+        <v>"DEBUG","Set next focus to execution from questions extraction"</v>
+      </c>
+      <c r="Q38" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="F38" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="111"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="K38" s="112" t="s">
-        <v>230</v>
-      </c>
-      <c r="L38" s="112" t="s">
-        <v>231</v>
-      </c>
-      <c r="M38" s="113" t="s">
-        <v>228</v>
-      </c>
-      <c r="N38" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="O38" s="113" t="s">
-        <v>233</v>
-      </c>
-      <c r="P38" s="91" t="str">
-        <f t="shared" ref="P38:P39" si="10">CONCATENATE("""","DEBUG","""",",","""",M38,"""")</f>
-        <v>"DEBUG","Extract form questions"</v>
-      </c>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="65" t="s">
-        <v>29</v>
+      <c r="R38" s="92" t="s">
+        <v>22</v>
       </c>
       <c r="S38" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="T38" s="65" t="s">
-        <v>207</v>
+        <v>224</v>
+      </c>
+      <c r="T38" s="64" t="s">
+        <v>172</v>
       </c>
       <c r="U38" s="92" t="s">
         <v>29</v>
@@ -34695,151 +34680,133 @@
     </row>
     <row r="39" spans="1:23" ht="17.25" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="84">
-        <v>3</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="84">
-        <v>2</v>
-      </c>
-      <c r="F39" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", S51, " from ",F38," ",S37)</f>
-        <v>Set next focus to execution from questions extraction</v>
-      </c>
-      <c r="N39" s="114"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="91" t="str">
-        <f t="shared" si="10"/>
-        <v>"DEBUG","Set next focus to execution from questions extraction"</v>
-      </c>
-      <c r="Q39" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S39" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="T39" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="U39" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="V39" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="W39" s="95"/>
+      <c r="B39" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
     </row>
     <row r="40" spans="1:23" ht="17.25" customHeight="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" s="37" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:23" ht="17.25" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="32"/>
-      <c r="C41" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="O41" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P41" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q41" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="T41" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="U41" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="V41" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="C41" s="138"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="137"/>
+      <c r="K41" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="133"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
     </row>
     <row r="42" spans="1:23" ht="17.25" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="32"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J42" s="141"/>
-      <c r="K42" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L42" s="142"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
       <c r="M42" s="77"/>
-      <c r="N42" s="107" t="s">
+      <c r="N42" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="O42" s="41"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
+      <c r="P42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q42" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S50,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "execution").setFocus();}</v>
+      </c>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
@@ -34849,133 +34816,150 @@
     <row r="43" spans="1:23" ht="17.25" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="79" t="s">
+      <c r="C43" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J43" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L43" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="O43" s="108" t="s">
+      <c r="O43" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q43" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",S51,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "execution").setFocus();}</v>
-      </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-    </row>
-    <row r="44" spans="1:23" ht="17.25" customHeight="1">
+      <c r="P43" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q43" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+    </row>
+    <row r="44" spans="1:23" ht="43.2" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M44" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N44" s="81" t="s">
+      <c r="C44" s="109">
+        <v>4</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="109">
+        <v>1</v>
+      </c>
+      <c r="F44" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="O44" s="83" t="s">
+      <c r="G44" s="111"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="P44" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q44" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-    </row>
-    <row r="45" spans="1:23" ht="43.2" customHeight="1">
+      <c r="J44" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="K44" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="L44" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="N44" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="O44" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="P44" s="91" t="str">
+        <f t="shared" ref="P44:P45" si="11">CONCATENATE("""","DEBUG","""",",","""",M44,"""")</f>
+        <v>"DEBUG","Extract question options"</v>
+      </c>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="T44" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="U44" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="V44" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="17.25" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="109">
+      <c r="C45" s="84">
         <v>4</v>
       </c>
-      <c r="D45" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="109">
+      <c r="D45" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="84">
+        <v>2</v>
+      </c>
+      <c r="F45" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", S50, " from ",F44," ",S43)</f>
+        <v>Set next focus to execution from options extraction</v>
+      </c>
+      <c r="N45" s="114"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="91" t="str">
+        <f t="shared" si="11"/>
+        <v>"DEBUG","Set next focus to execution from options extraction"</v>
+      </c>
+      <c r="Q45" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45" s="111"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="J45" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="K45" s="112" t="s">
-        <v>243</v>
-      </c>
-      <c r="L45" s="112" t="s">
-        <v>244</v>
-      </c>
-      <c r="M45" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="N45" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="O45" s="113" t="s">
-        <v>245</v>
-      </c>
-      <c r="P45" s="91" t="str">
-        <f t="shared" ref="P45:P46" si="11">CONCATENATE("""","DEBUG","""",",","""",M45,"""")</f>
-        <v>"DEBUG","Extract question options"</v>
-      </c>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="65" t="s">
-        <v>29</v>
+      <c r="R45" s="92" t="s">
+        <v>22</v>
       </c>
       <c r="S45" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="T45" s="65" t="s">
-        <v>180</v>
+        <v>224</v>
+      </c>
+      <c r="T45" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="U45" s="92" t="s">
         <v>29</v>
@@ -34985,153 +34969,137 @@
       </c>
     </row>
     <row r="46" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="84">
-        <v>4</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="84">
-        <v>2</v>
-      </c>
-      <c r="F46" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", S51, " from ",F45," ",S44)</f>
-        <v>Set next focus to execution from options extraction</v>
-      </c>
-      <c r="N46" s="114"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="91" t="str">
-        <f t="shared" si="11"/>
-        <v>"DEBUG","Set next focus to execution from options extraction"</v>
-      </c>
-      <c r="Q46" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="R46" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S46" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="T46" s="64" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="96"/>
+    </row>
+    <row r="47" spans="1:23" ht="18">
+      <c r="A47" s="18"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="U46" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="V46" s="65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="131" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="131"/>
-      <c r="P47" s="131"/>
-      <c r="Q47" s="131"/>
-      <c r="R47" s="116"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="116"/>
-      <c r="V47" s="116"/>
-      <c r="W47" s="96"/>
+      <c r="O47" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="76"/>
     </row>
     <row r="48" spans="1:23" ht="18">
       <c r="A48" s="18"/>
       <c r="B48" s="73"/>
-      <c r="C48" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="147"/>
-      <c r="M48" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="N48" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O48" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="P48" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q48" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R48" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S48" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="T48" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="U48" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="C48" s="138"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="137"/>
+      <c r="K48" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="133"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="117" t="s">
+        <v>245</v>
+      </c>
+      <c r="O48" s="78"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
       <c r="W48" s="76"/>
     </row>
-    <row r="49" spans="1:23" ht="18">
+    <row r="49" spans="1:23" ht="18.75" customHeight="1">
       <c r="A49" s="18"/>
       <c r="B49" s="73"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" s="141"/>
-      <c r="K49" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="142"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
       <c r="M49" s="77"/>
-      <c r="N49" s="117" t="s">
+      <c r="N49" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="O49" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="O49" s="78"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="42"/>
+      <c r="P49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q49" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",Q64,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-selection").setFocus();}</v>
+      </c>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
@@ -35139,137 +35107,154 @@
       <c r="V49" s="38"/>
       <c r="W49" s="76"/>
     </row>
-    <row r="50" spans="1:23" ht="18.75" customHeight="1">
+    <row r="50" spans="1:23" ht="18">
       <c r="A50" s="18"/>
       <c r="B50" s="73"/>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="135"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="79" t="s">
+      <c r="C50" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N50" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="O50" s="83"/>
+      <c r="P50" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="O50" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q50" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",Q65,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-selection").setFocus();}</v>
-      </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
       <c r="W50" s="76"/>
     </row>
-    <row r="51" spans="1:23" ht="18">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="18"/>
       <c r="B51" s="73"/>
-      <c r="C51" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K51" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M51" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N51" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="O51" s="83"/>
-      <c r="P51" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q51" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56" t="s">
+      <c r="C51" s="84">
+        <v>5</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="84">
+        <v>1</v>
+      </c>
+      <c r="F51" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="T51" s="56"/>
-      <c r="U51" s="56"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="76"/>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="73"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="88" t="str">
+        <f>I51</f>
+        <v>Process option</v>
+      </c>
+      <c r="N51" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="O51" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" s="90" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M51,"""")</f>
+        <v>"DEBUG","Process option"</v>
+      </c>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S51" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="T51" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="U51" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="V51" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="W51" s="95"/>
+    </row>
+    <row r="52" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="84">
         <v>5</v>
       </c>
       <c r="D52" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" s="84">
+        <v>2</v>
+      </c>
+      <c r="F52" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", Q64, " from ",F51," ",S57)</f>
+        <v>Set next focus to form-selection from form form-execution</v>
+      </c>
+      <c r="N52" s="114"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="91" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M52,"""")</f>
+        <v>"DEBUG","Set next focus to form-selection from form form-execution"</v>
+      </c>
+      <c r="Q52" s="62" t="b">
         <v>1</v>
       </c>
-      <c r="F52" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="H52" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="I52" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="L52" s="87"/>
-      <c r="M52" s="88" t="str">
-        <f>I52</f>
-        <v>Process option</v>
-      </c>
-      <c r="N52" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="O52" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="P52" s="90" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M52,"""")</f>
-        <v>"DEBUG","Process option"</v>
-      </c>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="65" t="s">
+      <c r="R52" s="92" t="s">
         <v>22</v>
       </c>
       <c r="S52" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="T52" s="65" t="s">
-        <v>183</v>
+        <v>224</v>
+      </c>
+      <c r="T52" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="U52" s="92" t="s">
         <v>29</v>
@@ -35277,156 +35262,139 @@
       <c r="V52" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="W52" s="95"/>
     </row>
     <row r="53" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="84">
-        <v>5</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="84">
-        <v>2</v>
-      </c>
-      <c r="F53" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", Q65, " from ",F52," ",S58)</f>
-        <v>Set next focus to form-selection from form form-execution</v>
-      </c>
-      <c r="N53" s="114"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="91" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M53,"""")</f>
-        <v>"DEBUG","Set next focus to form-selection from form form-execution"</v>
-      </c>
-      <c r="Q53" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="R53" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S53" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="T53" s="64" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="146"/>
+      <c r="K53" s="146"/>
+      <c r="L53" s="146"/>
+      <c r="M53" s="146"/>
+      <c r="N53" s="146"/>
+      <c r="O53" s="146"/>
+      <c r="P53" s="146"/>
+      <c r="Q53" s="146"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="96"/>
+    </row>
+    <row r="54" spans="1:23" ht="18">
+      <c r="A54" s="18"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="U53" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="V53" s="65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="131" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="131"/>
-      <c r="Q54" s="131"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="96"/>
+      <c r="O54" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T54" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U54" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="W54" s="76"/>
     </row>
     <row r="55" spans="1:23" ht="18">
       <c r="A55" s="18"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="N55" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O55" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="P55" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q55" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R55" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S55" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="T55" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="U55" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="V55" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="C55" s="138"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="137"/>
+      <c r="K55" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="133"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="O55" s="78"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
       <c r="W55" s="76"/>
     </row>
-    <row r="56" spans="1:23" ht="18">
+    <row r="56" spans="1:23" ht="18.75" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J56" s="141"/>
-      <c r="K56" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="142"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="47"/>
       <c r="M56" s="77"/>
-      <c r="N56" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="O56" s="78"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="42"/>
+      <c r="N56" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="O56" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q56" s="7" t="str">
+        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",Q64,"""",").setFocus();}")</f>
+        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-selection").setFocus();}</v>
+      </c>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
       <c r="T56" s="38"/>
@@ -35434,133 +35402,150 @@
       <c r="V56" s="38"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:23" ht="18.75" customHeight="1">
+    <row r="57" spans="1:23" ht="18">
       <c r="A57" s="18"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="O57" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q57" s="7" t="str">
-        <f>CONCATENATE("if (","$param",") {","kcontext.getKieRuntime().getAgenda().getAgendaGroup( ","""",Q65,"""",").setFocus();}")</f>
-        <v>if ($param) {kcontext.getKieRuntime().getAgenda().getAgendaGroup( "form-selection").setFocus();}</v>
-      </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
+      <c r="C57" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K57" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L57" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="O57" s="83"/>
+      <c r="P57" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q57" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
       <c r="W57" s="76"/>
     </row>
-    <row r="58" spans="1:23" ht="18">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
       <c r="A58" s="18"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L58" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M58" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N58" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="O58" s="83"/>
-      <c r="P58" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q58" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56" t="s">
+      <c r="C58" s="84">
+        <v>6</v>
+      </c>
+      <c r="D58" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="84">
+        <v>1</v>
+      </c>
+      <c r="F58" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
-      <c r="V58" s="56"/>
-      <c r="W58" s="76"/>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="73"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="88" t="str">
+        <f>I58</f>
+        <v>Process form</v>
+      </c>
+      <c r="N58" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="O58" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="P58" s="90" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M58,"""")</f>
+        <v>"DEBUG","Process form"</v>
+      </c>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S58" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="T58" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="U58" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="V58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="W58" s="95"/>
+    </row>
+    <row r="59" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="84">
         <v>6</v>
       </c>
       <c r="D59" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" s="84">
-        <v>1</v>
-      </c>
-      <c r="F59" s="85" t="s">
-        <v>194</v>
+        <v>2</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="G59" s="86"/>
       <c r="H59" s="86"/>
-      <c r="I59" s="87" t="s">
-        <v>258</v>
-      </c>
+      <c r="I59" s="87"/>
       <c r="J59" s="87"/>
-      <c r="K59" s="87" t="s">
-        <v>259</v>
-      </c>
+      <c r="K59" s="87"/>
       <c r="L59" s="87"/>
-      <c r="M59" s="88" t="str">
-        <f>I59</f>
-        <v>Process form</v>
-      </c>
-      <c r="N59" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="O59" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P59" s="90" t="str">
+      <c r="M59" s="94" t="str">
+        <f>CONCATENATE("Set next focus to ", R71, " from ",F58," ",Q64)</f>
+        <v>Set next focus to  from form form-selection</v>
+      </c>
+      <c r="N59" s="114"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="91" t="str">
         <f>CONCATENATE("""","DEBUG","""",",","""",M59,"""")</f>
-        <v>"DEBUG","Process form"</v>
-      </c>
-      <c r="Q59" s="90"/>
-      <c r="R59" s="65" t="s">
+        <v>"DEBUG","Set next focus to  from form form-selection"</v>
+      </c>
+      <c r="Q59" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" s="92" t="s">
         <v>22</v>
       </c>
       <c r="S59" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="T59" s="65" t="s">
-        <v>183</v>
+        <v>255</v>
+      </c>
+      <c r="T59" s="64" t="s">
+        <v>181</v>
       </c>
       <c r="U59" s="92" t="s">
         <v>29</v>
@@ -35568,145 +35553,121 @@
       <c r="V59" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="W59" s="95"/>
     </row>
     <row r="60" spans="1:23" ht="17.25" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="84">
-        <v>6</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="84">
-        <v>2</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="94" t="str">
-        <f>CONCATENATE("Set next focus to ", R72, " from ",F59," ",Q65)</f>
-        <v>Set next focus to  from form form-selection</v>
-      </c>
-      <c r="N60" s="114"/>
-      <c r="O60" s="113"/>
-      <c r="P60" s="91" t="str">
-        <f>CONCATENATE("""","DEBUG","""",",","""",M60,"""")</f>
-        <v>"DEBUG","Set next focus to  from form form-selection"</v>
-      </c>
-      <c r="Q60" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="R60" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S60" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="T60" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="U60" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="V60" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="17.25" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
+      <c r="M60" s="146"/>
+      <c r="N60" s="146"/>
+      <c r="O60" s="146"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="118"/>
+      <c r="V60" s="96"/>
+    </row>
+    <row r="61" spans="1:23" ht="18">
       <c r="A61" s="18"/>
-      <c r="B61" s="131" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="131"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
-      <c r="O61" s="131"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="96"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="P61" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q61" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S61" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="U61" s="76"/>
     </row>
     <row r="62" spans="1:23" ht="18">
       <c r="A62" s="18"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="N62" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="P62" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q62" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="R62" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="S62" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="T62" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="J62" s="137"/>
+      <c r="K62" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="133"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
       <c r="U62" s="76"/>
     </row>
-    <row r="63" spans="1:23" ht="18">
+    <row r="63" spans="1:23" ht="18.75" customHeight="1">
       <c r="A63" s="18"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="J63" s="141"/>
-      <c r="K63" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="L63" s="142"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="47"/>
       <c r="M63" s="77"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="43"/>
+      <c r="N63" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
       <c r="R63" s="38"/>
@@ -35714,128 +35675,127 @@
       <c r="T63" s="38"/>
       <c r="U63" s="76"/>
     </row>
-    <row r="64" spans="1:23" ht="18.75" customHeight="1">
+    <row r="64" spans="1:23" ht="18">
       <c r="A64" s="18"/>
       <c r="B64" s="73"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
+      <c r="C64" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="K64" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L64" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="N64" s="83"/>
+      <c r="O64" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
       <c r="U64" s="76"/>
     </row>
-    <row r="65" spans="1:24" ht="18">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="73"/>
-      <c r="C65" s="137" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="138"/>
-      <c r="E65" s="138"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="J65" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="L65" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="M65" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="N65" s="83"/>
-      <c r="O65" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="R65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="76"/>
+      <c r="C65" s="84">
+        <v>7</v>
+      </c>
+      <c r="D65" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="84">
+        <v>1</v>
+      </c>
+      <c r="F65" s="85" t="str">
+        <f>F14</f>
+        <v>accumulatedWeighting</v>
+      </c>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="87" t="str">
+        <f>CONCATENATE("Process ", F65)</f>
+        <v>Process accumulatedWeighting</v>
+      </c>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87" t="e">
+        <f ca="1">_xludf.concatenate("Procesar ", F65)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L65" s="87"/>
+      <c r="M65" s="88" t="str">
+        <f>I65</f>
+        <v>Process accumulatedWeighting</v>
+      </c>
+      <c r="N65" s="90" t="str">
+        <f>F65</f>
+        <v>accumulatedWeighting</v>
+      </c>
+      <c r="O65" s="90" t="str">
+        <f>CONCATENATE("""","DEBUG","""",",","""",M65,"""")</f>
+        <v>"DEBUG","Process accumulatedWeighting"</v>
+      </c>
+      <c r="P65" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q65" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="R65" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="S65" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="T65" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="U65" s="95"/>
     </row>
     <row r="66" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="84">
-        <v>7</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="84">
-        <v>1</v>
-      </c>
-      <c r="F66" s="85" t="str">
-        <f>F15</f>
-        <v>accumulatedWeighting</v>
-      </c>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="87" t="e">
-        <f ca="1">_xludf.concatenate("Process ", F66)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87" t="e">
-        <f ca="1">_xludf.concatenate("Procesar ", F66)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L66" s="87"/>
-      <c r="M66" s="88" t="e">
-        <f ca="1">I66</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N66" s="90" t="str">
-        <f>F66</f>
-        <v>accumulatedWeighting</v>
-      </c>
-      <c r="O66" s="90" t="e">
-        <f ca="1">CONCATENATE("""","DEBUG","""",",","""",M66,"""")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P66" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q66" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="R66" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="S66" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="T66" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="A66" s="17"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="120"/>
+      <c r="L66" s="120"/>
+      <c r="M66" s="121"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="95"/>
       <c r="U66" s="95"/>
+      <c r="V66" s="93"/>
+      <c r="W66" s="95"/>
+      <c r="X66" s="95"/>
     </row>
     <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="17"/>
@@ -35915,88 +35875,62 @@
       <c r="W69" s="95"/>
       <c r="X69" s="95"/>
     </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="120"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="120"/>
-      <c r="L70" s="120"/>
-      <c r="M70" s="121"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="104"/>
-      <c r="P70" s="104"/>
-      <c r="Q70" s="104"/>
-      <c r="R70" s="104"/>
-      <c r="S70" s="95"/>
-      <c r="T70" s="95"/>
-      <c r="U70" s="95"/>
-      <c r="V70" s="93"/>
-      <c r="W70" s="95"/>
-      <c r="X70" s="95"/>
-    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C49:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C42:H43"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="R33:V33"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B33:Q33"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="C63:H64"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C35:H36"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="N19:O19"/>
     <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B47:Q47"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B61:O61"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B46:Q46"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B60:O60"/>
     <mergeCell ref="C10:H11"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B16:R16"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B32:Q32"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="C62:H63"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C34:H35"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="C55:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="C48:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="C41:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36020,7 +35954,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="150" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
